--- a/August'21/31.08.2021/Bank Statement August-2021.xlsx
+++ b/August'21/31.08.2021/Bank Statement August-2021.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7905" tabRatio="742" activeTab="10"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7905" tabRatio="742" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="G. Cost" sheetId="45" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Symphony" sheetId="54" r:id="rId9"/>
     <sheet name="Sheet3" sheetId="55" r:id="rId10"/>
     <sheet name="Sheet4" sheetId="56" r:id="rId11"/>
+    <sheet name="Sheet5" sheetId="57" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="5">Allocation!$B$2:$X$27</definedName>
@@ -457,8 +458,66 @@
 </comments>
 </file>
 
+<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>*</author>
+  </authors>
+  <commentList>
+    <comment ref="L9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>*:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Projector Vara + Nasta</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>*:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Decoretion+banner+Lunce+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="250">
   <si>
     <t>Bank Guarantee</t>
   </si>
@@ -1033,9 +1092,6 @@
     <t>30.06.2021</t>
   </si>
   <si>
-    <t>Month :July''2021</t>
-  </si>
-  <si>
     <t>05.07.2021</t>
   </si>
   <si>
@@ -1208,6 +1264,9 @@
   </si>
   <si>
     <t>Date:31.08.2021</t>
+  </si>
+  <si>
+    <t>Month :August''2021</t>
   </si>
 </sst>
 </file>
@@ -3675,28 +3734,28 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4599,64 +4658,71 @@
   <dimension ref="A1:Y320"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R37" sqref="R37"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T42" sqref="T42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="17" width="10.28515625" style="89" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="89" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" style="89" hidden="1" customWidth="1"/>
+    <col min="3" max="7" width="10.28515625" style="89" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" style="89" hidden="1" customWidth="1"/>
+    <col min="9" max="10" width="10.28515625" style="89" customWidth="1"/>
+    <col min="11" max="12" width="10.28515625" style="89" hidden="1" customWidth="1"/>
+    <col min="13" max="16" width="10.28515625" style="89" customWidth="1"/>
+    <col min="17" max="17" width="10.28515625" style="89" hidden="1" customWidth="1"/>
     <col min="18" max="18" width="10.28515625" style="90" customWidth="1"/>
     <col min="19" max="16384" width="9.140625" style="89"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="378" t="s">
+      <c r="A1" s="376" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="378"/>
-      <c r="C1" s="378"/>
-      <c r="D1" s="378"/>
-      <c r="E1" s="378"/>
-      <c r="F1" s="378"/>
-      <c r="G1" s="378"/>
-      <c r="H1" s="378"/>
-      <c r="I1" s="378"/>
-      <c r="J1" s="378"/>
-      <c r="K1" s="378"/>
-      <c r="L1" s="378"/>
-      <c r="M1" s="378"/>
-      <c r="N1" s="378"/>
-      <c r="O1" s="378"/>
-      <c r="P1" s="378"/>
-      <c r="Q1" s="378"/>
-      <c r="R1" s="378"/>
+      <c r="B1" s="376"/>
+      <c r="C1" s="376"/>
+      <c r="D1" s="376"/>
+      <c r="E1" s="376"/>
+      <c r="F1" s="376"/>
+      <c r="G1" s="376"/>
+      <c r="H1" s="376"/>
+      <c r="I1" s="376"/>
+      <c r="J1" s="376"/>
+      <c r="K1" s="376"/>
+      <c r="L1" s="376"/>
+      <c r="M1" s="376"/>
+      <c r="N1" s="376"/>
+      <c r="O1" s="376"/>
+      <c r="P1" s="376"/>
+      <c r="Q1" s="376"/>
+      <c r="R1" s="376"/>
     </row>
     <row r="2" spans="1:25" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="379" t="s">
+      <c r="A2" s="377" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="379"/>
-      <c r="C2" s="379"/>
-      <c r="D2" s="379"/>
-      <c r="E2" s="379"/>
-      <c r="F2" s="379"/>
-      <c r="G2" s="379"/>
-      <c r="H2" s="379"/>
-      <c r="I2" s="379"/>
-      <c r="J2" s="379"/>
-      <c r="K2" s="379"/>
-      <c r="L2" s="379"/>
-      <c r="M2" s="379"/>
-      <c r="N2" s="379"/>
-      <c r="O2" s="379"/>
-      <c r="P2" s="379"/>
-      <c r="Q2" s="379"/>
-      <c r="R2" s="379"/>
+      <c r="B2" s="377"/>
+      <c r="C2" s="377"/>
+      <c r="D2" s="377"/>
+      <c r="E2" s="377"/>
+      <c r="F2" s="377"/>
+      <c r="G2" s="377"/>
+      <c r="H2" s="377"/>
+      <c r="I2" s="377"/>
+      <c r="J2" s="377"/>
+      <c r="K2" s="377"/>
+      <c r="L2" s="377"/>
+      <c r="M2" s="377"/>
+      <c r="N2" s="377"/>
+      <c r="O2" s="377"/>
+      <c r="P2" s="377"/>
+      <c r="Q2" s="377"/>
+      <c r="R2" s="377"/>
     </row>
     <row r="3" spans="1:25" s="91" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="388" t="s">
-        <v>191</v>
+        <v>249</v>
       </c>
       <c r="B3" s="389"/>
       <c r="C3" s="389"/>
@@ -4683,34 +4749,34 @@
       <c r="Y3" s="94"/>
     </row>
     <row r="4" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="380" t="s">
+      <c r="A4" s="378" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="382" t="s">
+      <c r="B4" s="380" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="382" t="s">
+      <c r="C4" s="380" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="376" t="s">
+      <c r="D4" s="382" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="376" t="s">
+      <c r="E4" s="382" t="s">
         <v>150</v>
       </c>
-      <c r="F4" s="376" t="s">
+      <c r="F4" s="382" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="376" t="s">
+      <c r="G4" s="382" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="376" t="s">
+      <c r="H4" s="382" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="376" t="s">
+      <c r="I4" s="382" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="376" t="s">
+      <c r="J4" s="382" t="s">
         <v>26</v>
       </c>
       <c r="K4" s="391" t="s">
@@ -4729,7 +4795,7 @@
         <v>30</v>
       </c>
       <c r="P4" s="384" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="Q4" s="386" t="s">
         <v>118</v>
@@ -4744,16 +4810,16 @@
       <c r="X4" s="93"/>
     </row>
     <row r="5" spans="1:25" s="94" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="381"/>
-      <c r="B5" s="383"/>
-      <c r="C5" s="383"/>
-      <c r="D5" s="377"/>
-      <c r="E5" s="377"/>
-      <c r="F5" s="377"/>
-      <c r="G5" s="377"/>
-      <c r="H5" s="377"/>
-      <c r="I5" s="377"/>
-      <c r="J5" s="377"/>
+      <c r="A5" s="379"/>
+      <c r="B5" s="381"/>
+      <c r="C5" s="381"/>
+      <c r="D5" s="383"/>
+      <c r="E5" s="383"/>
+      <c r="F5" s="383"/>
+      <c r="G5" s="383"/>
+      <c r="H5" s="383"/>
+      <c r="I5" s="383"/>
+      <c r="J5" s="383"/>
       <c r="K5" s="392"/>
       <c r="L5" s="385"/>
       <c r="M5" s="394"/>
@@ -4773,7 +4839,7 @@
     </row>
     <row r="6" spans="1:25" s="98" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="291" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B6" s="292"/>
       <c r="C6" s="293"/>
@@ -4806,7 +4872,7 @@
     </row>
     <row r="7" spans="1:25" s="98" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="291" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B7" s="292"/>
       <c r="C7" s="293"/>
@@ -4839,7 +4905,7 @@
     </row>
     <row r="8" spans="1:25" s="98" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="291" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B8" s="295"/>
       <c r="C8" s="296"/>
@@ -4874,7 +4940,7 @@
     </row>
     <row r="9" spans="1:25" s="98" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="291" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B9" s="295"/>
       <c r="C9" s="296"/>
@@ -4907,7 +4973,7 @@
     </row>
     <row r="10" spans="1:25" s="98" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="291" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B10" s="295"/>
       <c r="C10" s="296"/>
@@ -4940,7 +5006,7 @@
     </row>
     <row r="11" spans="1:25" s="98" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="291" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B11" s="295"/>
       <c r="C11" s="296"/>
@@ -4973,7 +5039,7 @@
     </row>
     <row r="12" spans="1:25" s="98" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="291" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B12" s="295"/>
       <c r="C12" s="296">
@@ -5008,7 +5074,7 @@
     </row>
     <row r="13" spans="1:25" s="98" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="291" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B13" s="295"/>
       <c r="C13" s="296">
@@ -5043,7 +5109,7 @@
     </row>
     <row r="14" spans="1:25" s="98" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="291" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B14" s="295"/>
       <c r="C14" s="296">
@@ -5078,7 +5144,7 @@
     </row>
     <row r="15" spans="1:25" s="98" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="291" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B15" s="295"/>
       <c r="C15" s="296"/>
@@ -5111,7 +5177,7 @@
     </row>
     <row r="16" spans="1:25" s="98" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="291" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B16" s="295"/>
       <c r="C16" s="296">
@@ -5150,7 +5216,7 @@
     </row>
     <row r="17" spans="1:24" s="98" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="291" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B17" s="295"/>
       <c r="C17" s="296"/>
@@ -5185,7 +5251,7 @@
     </row>
     <row r="18" spans="1:24" s="98" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="291" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B18" s="295"/>
       <c r="C18" s="296"/>
@@ -5218,7 +5284,7 @@
     </row>
     <row r="19" spans="1:24" s="98" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="291" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B19" s="295"/>
       <c r="C19" s="296"/>
@@ -5251,7 +5317,7 @@
     </row>
     <row r="20" spans="1:24" s="98" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="291" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B20" s="295"/>
       <c r="C20" s="296"/>
@@ -5284,7 +5350,7 @@
     </row>
     <row r="21" spans="1:24" s="98" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="291" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B21" s="295"/>
       <c r="C21" s="296">
@@ -5315,7 +5381,7 @@
     </row>
     <row r="22" spans="1:24" s="98" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="291" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B22" s="295"/>
       <c r="C22" s="296"/>
@@ -5346,7 +5412,7 @@
     </row>
     <row r="23" spans="1:24" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="291" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B23" s="295"/>
       <c r="C23" s="296"/>
@@ -5375,7 +5441,7 @@
     </row>
     <row r="24" spans="1:24" s="98" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="291" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B24" s="295"/>
       <c r="C24" s="296"/>
@@ -5407,7 +5473,7 @@
     </row>
     <row r="25" spans="1:24" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="291" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B25" s="295"/>
       <c r="C25" s="296"/>
@@ -5436,7 +5502,7 @@
     </row>
     <row r="26" spans="1:24" s="98" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="291" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B26" s="295"/>
       <c r="C26" s="296"/>
@@ -5465,7 +5531,7 @@
     </row>
     <row r="27" spans="1:24" s="98" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="291" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B27" s="295"/>
       <c r="C27" s="296"/>
@@ -5494,7 +5560,7 @@
     </row>
     <row r="28" spans="1:24" s="98" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="296" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B28" s="295"/>
       <c r="C28" s="296"/>
@@ -5527,7 +5593,7 @@
     </row>
     <row r="29" spans="1:24" s="98" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="296" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B29" s="295"/>
       <c r="C29" s="296">
@@ -5560,7 +5626,7 @@
     </row>
     <row r="30" spans="1:24" s="98" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="296" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B30" s="295"/>
       <c r="C30" s="296"/>
@@ -5591,7 +5657,7 @@
     </row>
     <row r="31" spans="1:24" s="98" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="296" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B31" s="295"/>
       <c r="C31" s="296">
@@ -5623,7 +5689,7 @@
     </row>
     <row r="32" spans="1:24" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="296" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B32" s="295"/>
       <c r="C32" s="296"/>
@@ -5649,9 +5715,9 @@
       </c>
       <c r="S32" s="103"/>
     </row>
-    <row r="33" spans="1:19" s="98" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" s="98" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="296" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B33" s="295"/>
       <c r="C33" s="296">
@@ -5687,7 +5753,7 @@
       </c>
       <c r="S33" s="99"/>
     </row>
-    <row r="34" spans="1:19" s="98" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" s="98" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="296"/>
       <c r="B34" s="295"/>
       <c r="C34" s="296"/>
@@ -5711,7 +5777,7 @@
       </c>
       <c r="S34" s="99"/>
     </row>
-    <row r="35" spans="1:19" s="98" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" s="98" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="296"/>
       <c r="B35" s="295"/>
       <c r="C35" s="296"/>
@@ -5735,7 +5801,7 @@
       </c>
       <c r="S35" s="99"/>
     </row>
-    <row r="36" spans="1:19" s="98" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" s="98" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="296"/>
       <c r="B36" s="300"/>
       <c r="C36" s="301"/>
@@ -7826,10 +7892,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
@@ -7846,9 +7908,14 @@
     <mergeCell ref="Q4:Q5"/>
     <mergeCell ref="A3:R3"/>
     <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageMargins left="0.2" right="0.2" top="0.5" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="95" orientation="landscape" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -7907,7 +7974,7 @@
     </row>
     <row r="4" spans="2:13" ht="22.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="481" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C4" s="482"/>
       <c r="D4" s="482"/>
@@ -8132,10 +8199,10 @@
       <c r="F15" s="226"/>
       <c r="G15" s="20"/>
       <c r="K15" s="118" t="s">
+        <v>191</v>
+      </c>
+      <c r="L15" s="157" t="s">
         <v>192</v>
-      </c>
-      <c r="L15" s="157" t="s">
-        <v>193</v>
       </c>
       <c r="M15" s="159">
         <v>8000</v>
@@ -8174,7 +8241,7 @@
       </c>
       <c r="G17" s="20"/>
       <c r="K17" s="118" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="L17" s="159" t="s">
         <v>95</v>
@@ -8191,10 +8258,10 @@
       <c r="F18" s="88"/>
       <c r="G18" s="20"/>
       <c r="K18" s="124" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L18" s="124" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="M18" s="160">
         <v>51546</v>
@@ -8252,10 +8319,10 @@
       <c r="D24" s="25"/>
       <c r="G24" s="24"/>
       <c r="K24" s="281" t="s">
+        <v>194</v>
+      </c>
+      <c r="L24" s="78" t="s">
         <v>195</v>
-      </c>
-      <c r="L24" s="78" t="s">
-        <v>196</v>
       </c>
       <c r="M24" s="78">
         <v>3746</v>
@@ -8274,10 +8341,10 @@
       <c r="D26" s="25"/>
       <c r="G26" s="24"/>
       <c r="K26" s="281" t="s">
+        <v>202</v>
+      </c>
+      <c r="L26" s="78" t="s">
         <v>203</v>
-      </c>
-      <c r="L26" s="78" t="s">
-        <v>204</v>
       </c>
       <c r="M26" s="78">
         <v>31153</v>
@@ -8382,7 +8449,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
@@ -8433,7 +8500,7 @@
     </row>
     <row r="4" spans="2:13" ht="22.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="408" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C4" s="409"/>
       <c r="D4" s="409"/>
@@ -8487,7 +8554,7 @@
     </row>
     <row r="8" spans="2:13" ht="22.5" x14ac:dyDescent="0.25">
       <c r="B8" s="357" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C8" s="358">
         <v>2000000</v>
@@ -8652,10 +8719,10 @@
       <c r="F16" s="369"/>
       <c r="G16" s="20"/>
       <c r="K16" s="118" t="s">
+        <v>191</v>
+      </c>
+      <c r="L16" s="157" t="s">
         <v>192</v>
-      </c>
-      <c r="L16" s="157" t="s">
-        <v>193</v>
       </c>
       <c r="M16" s="159">
         <v>8000</v>
@@ -8690,7 +8757,7 @@
       </c>
       <c r="G18" s="20"/>
       <c r="K18" s="118" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="L18" s="159" t="s">
         <v>95</v>
@@ -8727,10 +8794,10 @@
       <c r="E21" s="13"/>
       <c r="G21" s="24"/>
       <c r="K21" s="78" t="s">
+        <v>206</v>
+      </c>
+      <c r="L21" s="78" t="s">
         <v>207</v>
-      </c>
-      <c r="L21" s="78" t="s">
-        <v>208</v>
       </c>
       <c r="M21" s="78">
         <v>4250</v>
@@ -8742,10 +8809,10 @@
       <c r="E22" s="13"/>
       <c r="G22" s="24"/>
       <c r="K22" s="78" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L22" s="78" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="M22" s="78">
         <v>1900</v>
@@ -8757,10 +8824,10 @@
       <c r="E23" s="13"/>
       <c r="G23" s="24"/>
       <c r="K23" s="78" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L23" s="78" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="M23" s="78">
         <v>750</v>
@@ -8772,10 +8839,10 @@
       <c r="E24" s="13"/>
       <c r="G24" s="24"/>
       <c r="K24" s="78" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L24" s="78" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="M24" s="78">
         <v>20000</v>
@@ -8789,15 +8856,15 @@
       <c r="L25" s="78"/>
       <c r="M25" s="78"/>
     </row>
-    <row r="26" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C26" s="8"/>
       <c r="D26" s="25"/>
       <c r="G26" s="24"/>
       <c r="K26" s="281" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L26" s="78" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M26" s="78">
         <v>4500</v>
@@ -8817,7 +8884,7 @@
       <c r="F28" s="6"/>
       <c r="G28" s="24"/>
       <c r="K28" s="78" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="L28" s="78" t="s">
         <v>96</v>
@@ -8834,7 +8901,7 @@
       </c>
       <c r="G29" s="2"/>
       <c r="K29" s="78" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="L29" s="78" t="s">
         <v>96</v>
@@ -8848,10 +8915,10 @@
       <c r="E30" s="15"/>
       <c r="F30" s="16"/>
       <c r="K30" s="78" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="L30" s="78" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M30" s="78">
         <v>5000</v>
@@ -8862,10 +8929,10 @@
       <c r="E31" s="15"/>
       <c r="F31" s="16"/>
       <c r="K31" s="78" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="L31" s="78" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M31" s="78">
         <v>5000</v>
@@ -8891,10 +8958,10 @@
       <c r="E33" s="7"/>
       <c r="F33" s="10"/>
       <c r="K33" s="78" t="s">
+        <v>238</v>
+      </c>
+      <c r="L33" s="78" t="s">
         <v>239</v>
-      </c>
-      <c r="L33" s="78" t="s">
-        <v>240</v>
       </c>
       <c r="M33" s="78">
         <v>3000</v>
@@ -8906,10 +8973,10 @@
       <c r="E34" s="12"/>
       <c r="F34" s="8"/>
       <c r="K34" s="78" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L34" s="78" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M34" s="78">
         <v>5000</v>
@@ -8921,10 +8988,10 @@
       <c r="E35" s="7"/>
       <c r="F35" s="10"/>
       <c r="K35" s="78" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="L35" s="78" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M35" s="78">
         <v>5000</v>
@@ -8936,7 +9003,7 @@
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="K36" s="78" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="L36" s="78" t="s">
         <v>96</v>
@@ -8951,7 +9018,705 @@
       <c r="E37" s="7"/>
       <c r="F37" s="10"/>
       <c r="K37" s="78" t="s">
+        <v>247</v>
+      </c>
+      <c r="L37" s="78" t="s">
+        <v>96</v>
+      </c>
+      <c r="M37" s="78">
+        <v>4150</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="K38" s="78"/>
+      <c r="L38" s="78"/>
+      <c r="M38" s="78"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="K39" s="78"/>
+      <c r="L39" s="78"/>
+      <c r="M39" s="78"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="K40" s="78"/>
+      <c r="L40" s="78"/>
+      <c r="M40" s="78"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="K41" s="78"/>
+      <c r="L41" s="78"/>
+      <c r="M41" s="78"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="K42" s="78"/>
+      <c r="L42" s="78"/>
+      <c r="M42" s="78"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="K43" s="78"/>
+      <c r="L43" s="78"/>
+      <c r="M43" s="78"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="K44" s="78"/>
+      <c r="L44" s="78"/>
+      <c r="M44" s="78"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="K45" s="78"/>
+      <c r="L45" s="78"/>
+      <c r="M45" s="78"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="K46" s="78"/>
+      <c r="L46" s="78"/>
+      <c r="M46" s="78"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="K47" s="78"/>
+      <c r="L47" s="78"/>
+      <c r="M47" s="78"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="K48" s="78"/>
+      <c r="L48" s="78"/>
+      <c r="M48" s="78"/>
+    </row>
+    <row r="49" spans="11:13" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K49" s="78"/>
+      <c r="L49" s="78"/>
+      <c r="M49" s="78"/>
+    </row>
+    <row r="50" spans="11:13" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K50" s="78"/>
+      <c r="L50" s="78"/>
+      <c r="M50" s="78"/>
+    </row>
+    <row r="51" spans="11:13" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K51" s="78"/>
+      <c r="L51" s="78"/>
+      <c r="M51" s="78"/>
+    </row>
+    <row r="52" spans="11:13" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K52" s="78"/>
+      <c r="L52" s="78"/>
+      <c r="M52" s="78"/>
+    </row>
+    <row r="53" spans="11:13" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K53" s="78"/>
+      <c r="L53" s="78"/>
+      <c r="M53" s="78"/>
+    </row>
+    <row r="54" spans="11:13" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K54" s="78"/>
+      <c r="L54" s="78"/>
+      <c r="M54" s="78"/>
+    </row>
+    <row r="55" spans="11:13" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K55" s="403" t="s">
+        <v>31</v>
+      </c>
+      <c r="L55" s="404"/>
+      <c r="M55" s="375">
+        <f>SUM(M9:M54)</f>
+        <v>113568</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="D6:D19"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="E7:F7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:M55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="1.140625" style="19" customWidth="1"/>
+    <col min="2" max="2" width="39.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="3" style="19" customWidth="1"/>
+    <col min="5" max="5" width="41.5703125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="35.42578125" style="19" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="5" style="19" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" style="19" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" style="19" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.5703125" style="19" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.85546875" style="19" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="19"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:13" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H1" s="312"/>
+    </row>
+    <row r="2" spans="2:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="405" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="406"/>
+      <c r="D2" s="406"/>
+      <c r="E2" s="406"/>
+      <c r="F2" s="407"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="114"/>
+    </row>
+    <row r="3" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="417" t="s">
+        <v>149</v>
+      </c>
+      <c r="C3" s="418"/>
+      <c r="D3" s="418"/>
+      <c r="E3" s="418"/>
+      <c r="F3" s="419"/>
+      <c r="H3" s="114"/>
+      <c r="I3" s="114"/>
+      <c r="J3" s="114"/>
+    </row>
+    <row r="4" spans="2:13" ht="22.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="408" t="s">
         <v>248</v>
+      </c>
+      <c r="C4" s="409"/>
+      <c r="D4" s="409"/>
+      <c r="E4" s="409"/>
+      <c r="F4" s="410"/>
+    </row>
+    <row r="5" spans="2:13" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="352" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="353">
+        <v>300000</v>
+      </c>
+      <c r="D5" s="354"/>
+      <c r="E5" s="355" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="356">
+        <v>300000</v>
+      </c>
+      <c r="G5" s="17"/>
+    </row>
+    <row r="6" spans="2:13" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="347" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="348">
+        <v>300000</v>
+      </c>
+      <c r="D6" s="420"/>
+      <c r="E6" s="347" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="348">
+        <v>300000</v>
+      </c>
+      <c r="G6" s="26"/>
+    </row>
+    <row r="7" spans="2:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="423"/>
+      <c r="C7" s="424"/>
+      <c r="D7" s="421"/>
+      <c r="E7" s="425"/>
+      <c r="F7" s="426"/>
+      <c r="G7" s="26"/>
+      <c r="K7" s="411" t="s">
+        <v>86</v>
+      </c>
+      <c r="L7" s="412"/>
+      <c r="M7" s="413"/>
+    </row>
+    <row r="8" spans="2:13" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="B8" s="357" t="s">
+        <v>228</v>
+      </c>
+      <c r="C8" s="358">
+        <v>2000000</v>
+      </c>
+      <c r="D8" s="421"/>
+      <c r="E8" s="359" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" s="360">
+        <v>1047344.6375</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="K8" s="118" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="157" t="s">
+        <v>87</v>
+      </c>
+      <c r="M8" s="157" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" ht="21.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="357" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="361">
+        <v>76678.337</v>
+      </c>
+      <c r="D9" s="421"/>
+      <c r="E9" s="359" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="360">
+        <v>171231</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="K9" s="118" t="s">
+        <v>88</v>
+      </c>
+      <c r="L9" s="157" t="s">
+        <v>89</v>
+      </c>
+      <c r="M9" s="157">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" ht="21.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="357"/>
+      <c r="C10" s="361"/>
+      <c r="D10" s="421"/>
+      <c r="E10" s="359" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="362">
+        <v>557239.6995000001</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="K10" s="118" t="s">
+        <v>90</v>
+      </c>
+      <c r="L10" s="157" t="s">
+        <v>91</v>
+      </c>
+      <c r="M10" s="157">
+        <v>7300</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" ht="21.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="357" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="361">
+        <v>63332</v>
+      </c>
+      <c r="D11" s="421"/>
+      <c r="E11" s="359" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" s="363">
+        <v>423963</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="K11" s="124"/>
+      <c r="L11" s="159"/>
+      <c r="M11" s="159"/>
+    </row>
+    <row r="12" spans="2:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B12" s="357" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="361"/>
+      <c r="D12" s="421"/>
+      <c r="E12" s="359" t="s">
+        <v>148</v>
+      </c>
+      <c r="F12" s="364">
+        <v>113568</v>
+      </c>
+      <c r="G12" s="20"/>
+      <c r="K12" s="308"/>
+      <c r="L12" s="309"/>
+      <c r="M12" s="310"/>
+    </row>
+    <row r="13" spans="2:13" ht="22.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="357"/>
+      <c r="C13" s="365"/>
+      <c r="D13" s="421"/>
+      <c r="E13" s="366"/>
+      <c r="F13" s="362"/>
+      <c r="G13" s="20"/>
+      <c r="K13" s="118"/>
+      <c r="L13" s="157"/>
+      <c r="M13" s="159"/>
+    </row>
+    <row r="14" spans="2:13" ht="22.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="367"/>
+      <c r="C14" s="368"/>
+      <c r="D14" s="421"/>
+      <c r="E14" s="359" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="363">
+        <v>300000</v>
+      </c>
+      <c r="G14" s="115"/>
+      <c r="H14" s="116"/>
+      <c r="I14" s="351">
+        <f>C18-F18</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="116"/>
+      <c r="K14" s="118"/>
+      <c r="L14" s="157"/>
+      <c r="M14" s="159"/>
+    </row>
+    <row r="15" spans="2:13" ht="21.75" x14ac:dyDescent="0.25">
+      <c r="B15" s="349" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="350">
+        <f>C9-C11-C12-C14</f>
+        <v>13346.337</v>
+      </c>
+      <c r="D15" s="421"/>
+      <c r="E15" s="359" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="363"/>
+      <c r="G15" s="20"/>
+      <c r="K15" s="118" t="s">
+        <v>117</v>
+      </c>
+      <c r="L15" s="157" t="s">
+        <v>132</v>
+      </c>
+      <c r="M15" s="159">
+        <v>23420</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" ht="21.75" x14ac:dyDescent="0.3">
+      <c r="B16" s="367"/>
+      <c r="C16" s="368"/>
+      <c r="D16" s="421"/>
+      <c r="E16" s="366"/>
+      <c r="F16" s="369"/>
+      <c r="G16" s="20"/>
+      <c r="K16" s="118" t="s">
+        <v>191</v>
+      </c>
+      <c r="L16" s="157" t="s">
+        <v>192</v>
+      </c>
+      <c r="M16" s="159">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" s="23" customFormat="1" ht="21.75" x14ac:dyDescent="0.3">
+      <c r="B17" s="357"/>
+      <c r="C17" s="361"/>
+      <c r="D17" s="421"/>
+      <c r="E17" s="359"/>
+      <c r="F17" s="370"/>
+      <c r="G17" s="22"/>
+      <c r="K17" s="124"/>
+      <c r="L17" s="159"/>
+      <c r="M17" s="159"/>
+    </row>
+    <row r="18" spans="2:13" ht="21.75" x14ac:dyDescent="0.25">
+      <c r="B18" s="357" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="361">
+        <f>C8+C9-C11-C14-C16</f>
+        <v>2013346.3370000001</v>
+      </c>
+      <c r="D18" s="421"/>
+      <c r="E18" s="359" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="363">
+        <f>F8+F9+F10+F11+F12+F13+F15-F14+F16</f>
+        <v>2013346.3370000003</v>
+      </c>
+      <c r="G18" s="20"/>
+      <c r="K18" s="118" t="s">
+        <v>197</v>
+      </c>
+      <c r="L18" s="159" t="s">
+        <v>95</v>
+      </c>
+      <c r="M18" s="157">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="371"/>
+      <c r="C19" s="372"/>
+      <c r="D19" s="422"/>
+      <c r="E19" s="373"/>
+      <c r="F19" s="374"/>
+      <c r="G19" s="20"/>
+      <c r="K19" s="124"/>
+      <c r="L19" s="124"/>
+      <c r="M19" s="160"/>
+    </row>
+    <row r="20" spans="2:13" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="414"/>
+      <c r="C20" s="415"/>
+      <c r="D20" s="415"/>
+      <c r="E20" s="415"/>
+      <c r="F20" s="416"/>
+      <c r="G20" s="24"/>
+      <c r="K20" s="161"/>
+      <c r="L20" s="161"/>
+      <c r="M20" s="161"/>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C21" s="8"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="13"/>
+      <c r="G21" s="24"/>
+      <c r="K21" s="78" t="s">
+        <v>206</v>
+      </c>
+      <c r="L21" s="78" t="s">
+        <v>207</v>
+      </c>
+      <c r="M21" s="78">
+        <v>4250</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C22" s="8"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="13"/>
+      <c r="G22" s="24"/>
+      <c r="K22" s="78" t="s">
+        <v>208</v>
+      </c>
+      <c r="L22" s="78" t="s">
+        <v>213</v>
+      </c>
+      <c r="M22" s="78">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C23" s="8"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="13"/>
+      <c r="G23" s="24"/>
+      <c r="K23" s="78" t="s">
+        <v>221</v>
+      </c>
+      <c r="L23" s="78" t="s">
+        <v>223</v>
+      </c>
+      <c r="M23" s="78">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C24" s="8"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="13"/>
+      <c r="G24" s="24"/>
+      <c r="K24" s="78" t="s">
+        <v>220</v>
+      </c>
+      <c r="L24" s="78" t="s">
+        <v>210</v>
+      </c>
+      <c r="M24" s="78">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C25" s="8"/>
+      <c r="D25" s="25"/>
+      <c r="G25" s="24"/>
+      <c r="K25" s="281"/>
+      <c r="L25" s="78"/>
+      <c r="M25" s="78"/>
+    </row>
+    <row r="26" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="C26" s="8"/>
+      <c r="D26" s="25"/>
+      <c r="G26" s="24"/>
+      <c r="K26" s="281" t="s">
+        <v>226</v>
+      </c>
+      <c r="L26" s="78" t="s">
+        <v>203</v>
+      </c>
+      <c r="M26" s="78">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C27" s="8"/>
+      <c r="D27" s="25"/>
+      <c r="G27" s="24"/>
+      <c r="K27" s="281"/>
+      <c r="L27" s="78"/>
+      <c r="M27" s="78"/>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D28" s="25"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="24"/>
+      <c r="K28" s="78" t="s">
+        <v>231</v>
+      </c>
+      <c r="L28" s="78" t="s">
+        <v>96</v>
+      </c>
+      <c r="M28" s="78">
+        <v>3152</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D29" s="14"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="G29" s="2"/>
+      <c r="K29" s="78" t="s">
+        <v>232</v>
+      </c>
+      <c r="L29" s="78" t="s">
+        <v>96</v>
+      </c>
+      <c r="M29" s="78">
+        <v>5023</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D30" s="14"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="16"/>
+      <c r="K30" s="78" t="s">
+        <v>231</v>
+      </c>
+      <c r="L30" s="78" t="s">
+        <v>203</v>
+      </c>
+      <c r="M30" s="78">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D31" s="14"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="16"/>
+      <c r="K31" s="78" t="s">
+        <v>232</v>
+      </c>
+      <c r="L31" s="78" t="s">
+        <v>203</v>
+      </c>
+      <c r="M31" s="78">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B32" s="117"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="7"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="78"/>
+      <c r="L32" s="78"/>
+      <c r="M32" s="78"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B33" s="117"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="10"/>
+      <c r="K33" s="78" t="s">
+        <v>238</v>
+      </c>
+      <c r="L33" s="78" t="s">
+        <v>239</v>
+      </c>
+      <c r="M33" s="78">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C34" s="8"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="8"/>
+      <c r="K34" s="78" t="s">
+        <v>240</v>
+      </c>
+      <c r="L34" s="78" t="s">
+        <v>203</v>
+      </c>
+      <c r="M34" s="78">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C35" s="8"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="10"/>
+      <c r="K35" s="78" t="s">
+        <v>238</v>
+      </c>
+      <c r="L35" s="78" t="s">
+        <v>203</v>
+      </c>
+      <c r="M35" s="78">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C36" s="8"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="K36" s="78" t="s">
+        <v>246</v>
+      </c>
+      <c r="L36" s="78" t="s">
+        <v>96</v>
+      </c>
+      <c r="M36" s="78">
+        <v>4073</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C37" s="8"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="10"/>
+      <c r="K37" s="78" t="s">
+        <v>247</v>
       </c>
       <c r="L37" s="78" t="s">
         <v>96</v>
@@ -9211,7 +9976,7 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="46" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B6" s="47">
         <v>0</v>
@@ -9241,7 +10006,7 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="53" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B7" s="47">
         <v>860000</v>
@@ -9271,7 +10036,7 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="53" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B8" s="55">
         <v>131000</v>
@@ -9301,7 +10066,7 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="55" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B9" s="55">
         <v>0</v>
@@ -9331,7 +10096,7 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="55" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B10" s="55">
         <v>412000</v>
@@ -9359,7 +10124,7 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="41" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B11" s="59">
         <v>0</v>
@@ -9389,7 +10154,7 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="46" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B12" s="59">
         <v>0</v>
@@ -9419,7 +10184,7 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="46" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B13" s="61">
         <v>721000</v>
@@ -9449,7 +10214,7 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="46" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B14" s="62">
         <v>0</v>
@@ -9479,7 +10244,7 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="46" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B15" s="43">
         <v>236000</v>
@@ -9509,7 +10274,7 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="46" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B16" s="47">
         <v>468000</v>
@@ -9539,7 +10304,7 @@
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="53" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B17" s="47">
         <v>290000</v>
@@ -9569,7 +10334,7 @@
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="53" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B18" s="55">
         <v>0</v>
@@ -9599,7 +10364,7 @@
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="55" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B19" s="55">
         <v>681000</v>
@@ -9629,7 +10394,7 @@
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="55" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B20" s="55">
         <v>192000</v>
@@ -9659,7 +10424,7 @@
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="46" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B21" s="47">
         <v>256000</v>
@@ -9689,7 +10454,7 @@
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="46" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B22" s="47">
         <v>393000</v>
@@ -9719,7 +10484,7 @@
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="46" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B23" s="47">
         <v>290000</v>
@@ -9749,7 +10514,7 @@
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="46" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B24" s="47">
         <v>0</v>
@@ -9779,7 +10544,7 @@
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="46" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B25" s="47">
         <v>461000</v>
@@ -9809,7 +10574,7 @@
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="46" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B26" s="47">
         <v>327000</v>
@@ -9837,7 +10602,7 @@
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="46" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B27" s="47">
         <v>300000</v>
@@ -9865,7 +10630,7 @@
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="46" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B28" s="47">
         <v>100000</v>
@@ -9893,7 +10658,7 @@
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="46" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B29" s="47">
         <v>227000</v>
@@ -9921,7 +10686,7 @@
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="46" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B30" s="47">
         <v>0</v>
@@ -9949,7 +10714,7 @@
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="46" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B31" s="69">
         <v>479000</v>
@@ -9977,7 +10742,7 @@
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B32" s="69">
         <v>0</v>
@@ -10005,7 +10770,7 @@
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="46" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B33" s="69">
         <v>737000</v>
@@ -11169,8 +11934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11220,7 +11985,7 @@
     </row>
     <row r="4" spans="2:13" ht="22.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="408" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C4" s="409"/>
       <c r="D4" s="409"/>
@@ -11274,7 +12039,7 @@
     </row>
     <row r="8" spans="2:13" ht="22.5" x14ac:dyDescent="0.25">
       <c r="B8" s="357" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C8" s="358">
         <v>2000000</v>
@@ -11443,10 +12208,10 @@
       <c r="F16" s="369"/>
       <c r="G16" s="20"/>
       <c r="K16" s="118" t="s">
+        <v>191</v>
+      </c>
+      <c r="L16" s="157" t="s">
         <v>192</v>
-      </c>
-      <c r="L16" s="157" t="s">
-        <v>193</v>
       </c>
       <c r="M16" s="159">
         <v>8000</v>
@@ -11481,7 +12246,7 @@
       </c>
       <c r="G18" s="20"/>
       <c r="K18" s="118" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="L18" s="159" t="s">
         <v>95</v>
@@ -11518,10 +12283,10 @@
       <c r="E21" s="13"/>
       <c r="G21" s="24"/>
       <c r="K21" s="78" t="s">
+        <v>206</v>
+      </c>
+      <c r="L21" s="78" t="s">
         <v>207</v>
-      </c>
-      <c r="L21" s="78" t="s">
-        <v>208</v>
       </c>
       <c r="M21" s="78">
         <v>4250</v>
@@ -11533,10 +12298,10 @@
       <c r="E22" s="13"/>
       <c r="G22" s="24"/>
       <c r="K22" s="78" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L22" s="78" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="M22" s="78">
         <v>1900</v>
@@ -11548,10 +12313,10 @@
       <c r="E23" s="13"/>
       <c r="G23" s="24"/>
       <c r="K23" s="78" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L23" s="78" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="M23" s="78">
         <v>750</v>
@@ -11563,10 +12328,10 @@
       <c r="E24" s="13"/>
       <c r="G24" s="24"/>
       <c r="K24" s="78" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L24" s="78" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="M24" s="78">
         <v>20000</v>
@@ -11585,10 +12350,10 @@
       <c r="D26" s="25"/>
       <c r="G26" s="24"/>
       <c r="K26" s="281" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L26" s="78" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M26" s="78">
         <v>4500</v>
@@ -11608,7 +12373,7 @@
       <c r="F28" s="6"/>
       <c r="G28" s="24"/>
       <c r="K28" s="78" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="L28" s="78" t="s">
         <v>96</v>
@@ -11625,7 +12390,7 @@
       </c>
       <c r="G29" s="2"/>
       <c r="K29" s="78" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="L29" s="78" t="s">
         <v>96</v>
@@ -11639,10 +12404,10 @@
       <c r="E30" s="15"/>
       <c r="F30" s="16"/>
       <c r="K30" s="78" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="L30" s="78" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M30" s="78">
         <v>5000</v>
@@ -11653,10 +12418,10 @@
       <c r="E31" s="15"/>
       <c r="F31" s="16"/>
       <c r="K31" s="78" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="L31" s="78" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M31" s="78">
         <v>5000</v>
@@ -11682,10 +12447,10 @@
       <c r="E33" s="7"/>
       <c r="F33" s="10"/>
       <c r="K33" s="78" t="s">
+        <v>238</v>
+      </c>
+      <c r="L33" s="78" t="s">
         <v>239</v>
-      </c>
-      <c r="L33" s="78" t="s">
-        <v>240</v>
       </c>
       <c r="M33" s="78">
         <v>3000</v>
@@ -11697,10 +12462,10 @@
       <c r="E34" s="12"/>
       <c r="F34" s="8"/>
       <c r="K34" s="78" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L34" s="78" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M34" s="78">
         <v>5000</v>
@@ -11712,10 +12477,10 @@
       <c r="E35" s="7"/>
       <c r="F35" s="10"/>
       <c r="K35" s="78" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="L35" s="78" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M35" s="78">
         <v>5000</v>
@@ -11727,7 +12492,7 @@
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="K36" s="78" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="L36" s="78" t="s">
         <v>96</v>
@@ -11742,7 +12507,7 @@
       <c r="E37" s="7"/>
       <c r="F37" s="10"/>
       <c r="K37" s="78" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="L37" s="78" t="s">
         <v>96</v>
@@ -11872,8 +12637,8 @@
   <dimension ref="A1:V168"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R14" sqref="R14"/>
+      <pane ySplit="6" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S27" sqref="S27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11985,7 +12750,7 @@
     </row>
     <row r="5" spans="1:22" s="120" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="440" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B5" s="441"/>
       <c r="C5" s="442"/>
@@ -12416,7 +13181,7 @@
       <c r="P15" s="141"/>
       <c r="Q15" s="146"/>
       <c r="T15" s="124" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="U15" s="124">
         <v>60</v>
@@ -12429,10 +13194,10 @@
     <row r="16" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="147"/>
       <c r="B16" s="138" t="s">
+        <v>199</v>
+      </c>
+      <c r="C16" s="175" t="s">
         <v>200</v>
-      </c>
-      <c r="C16" s="175" t="s">
-        <v>201</v>
       </c>
       <c r="D16" s="126"/>
       <c r="E16" s="331"/>
@@ -12451,7 +13216,7 @@
       <c r="P16" s="141"/>
       <c r="Q16" s="146"/>
       <c r="T16" s="223" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="U16" s="223">
         <v>349</v>
@@ -12519,7 +13284,7 @@
         <v>133</v>
       </c>
       <c r="C18" s="344" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D18" s="126"/>
       <c r="E18" s="331"/>
@@ -12575,7 +13340,7 @@
         <v>134</v>
       </c>
       <c r="C20" s="345" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D20" s="149"/>
       <c r="E20" s="332"/>
@@ -12795,7 +13560,7 @@
       </c>
       <c r="B26" s="138"/>
       <c r="C26" s="176" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D26" s="149"/>
       <c r="E26" s="333"/>
@@ -12826,7 +13591,7 @@
       </c>
       <c r="B27" s="138"/>
       <c r="C27" s="176" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D27" s="155"/>
       <c r="E27" s="333"/>
@@ -12839,11 +13604,9 @@
       <c r="L27" s="139"/>
       <c r="M27" s="140"/>
       <c r="N27" s="141">
-        <v>1</v>
-      </c>
-      <c r="O27" s="141">
-        <v>2</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="O27" s="141"/>
       <c r="P27" s="141"/>
       <c r="Q27" s="146"/>
     </row>
@@ -12922,11 +13685,11 @@
       </c>
       <c r="N29" s="172">
         <f t="shared" si="1"/>
-        <v>730</v>
+        <v>742</v>
       </c>
       <c r="O29" s="172">
         <f t="shared" si="1"/>
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="P29" s="172">
         <f t="shared" si="1"/>

--- a/August'21/31.08.2021/Bank Statement August-2021.xlsx
+++ b/August'21/31.08.2021/Bank Statement August-2021.xlsx
@@ -3734,6 +3734,12 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3750,12 +3756,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4677,48 +4677,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="376" t="s">
+      <c r="A1" s="378" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="376"/>
-      <c r="C1" s="376"/>
-      <c r="D1" s="376"/>
-      <c r="E1" s="376"/>
-      <c r="F1" s="376"/>
-      <c r="G1" s="376"/>
-      <c r="H1" s="376"/>
-      <c r="I1" s="376"/>
-      <c r="J1" s="376"/>
-      <c r="K1" s="376"/>
-      <c r="L1" s="376"/>
-      <c r="M1" s="376"/>
-      <c r="N1" s="376"/>
-      <c r="O1" s="376"/>
-      <c r="P1" s="376"/>
-      <c r="Q1" s="376"/>
-      <c r="R1" s="376"/>
+      <c r="B1" s="378"/>
+      <c r="C1" s="378"/>
+      <c r="D1" s="378"/>
+      <c r="E1" s="378"/>
+      <c r="F1" s="378"/>
+      <c r="G1" s="378"/>
+      <c r="H1" s="378"/>
+      <c r="I1" s="378"/>
+      <c r="J1" s="378"/>
+      <c r="K1" s="378"/>
+      <c r="L1" s="378"/>
+      <c r="M1" s="378"/>
+      <c r="N1" s="378"/>
+      <c r="O1" s="378"/>
+      <c r="P1" s="378"/>
+      <c r="Q1" s="378"/>
+      <c r="R1" s="378"/>
     </row>
     <row r="2" spans="1:25" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="377" t="s">
+      <c r="A2" s="379" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="377"/>
-      <c r="C2" s="377"/>
-      <c r="D2" s="377"/>
-      <c r="E2" s="377"/>
-      <c r="F2" s="377"/>
-      <c r="G2" s="377"/>
-      <c r="H2" s="377"/>
-      <c r="I2" s="377"/>
-      <c r="J2" s="377"/>
-      <c r="K2" s="377"/>
-      <c r="L2" s="377"/>
-      <c r="M2" s="377"/>
-      <c r="N2" s="377"/>
-      <c r="O2" s="377"/>
-      <c r="P2" s="377"/>
-      <c r="Q2" s="377"/>
-      <c r="R2" s="377"/>
+      <c r="B2" s="379"/>
+      <c r="C2" s="379"/>
+      <c r="D2" s="379"/>
+      <c r="E2" s="379"/>
+      <c r="F2" s="379"/>
+      <c r="G2" s="379"/>
+      <c r="H2" s="379"/>
+      <c r="I2" s="379"/>
+      <c r="J2" s="379"/>
+      <c r="K2" s="379"/>
+      <c r="L2" s="379"/>
+      <c r="M2" s="379"/>
+      <c r="N2" s="379"/>
+      <c r="O2" s="379"/>
+      <c r="P2" s="379"/>
+      <c r="Q2" s="379"/>
+      <c r="R2" s="379"/>
     </row>
     <row r="3" spans="1:25" s="91" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="388" t="s">
@@ -4749,34 +4749,34 @@
       <c r="Y3" s="94"/>
     </row>
     <row r="4" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="378" t="s">
+      <c r="A4" s="380" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="380" t="s">
+      <c r="B4" s="382" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="380" t="s">
+      <c r="C4" s="382" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="382" t="s">
+      <c r="D4" s="376" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="382" t="s">
+      <c r="E4" s="376" t="s">
         <v>150</v>
       </c>
-      <c r="F4" s="382" t="s">
+      <c r="F4" s="376" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="382" t="s">
+      <c r="G4" s="376" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="382" t="s">
+      <c r="H4" s="376" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="382" t="s">
+      <c r="I4" s="376" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="382" t="s">
+      <c r="J4" s="376" t="s">
         <v>26</v>
       </c>
       <c r="K4" s="391" t="s">
@@ -4810,16 +4810,16 @@
       <c r="X4" s="93"/>
     </row>
     <row r="5" spans="1:25" s="94" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="379"/>
-      <c r="B5" s="381"/>
-      <c r="C5" s="381"/>
-      <c r="D5" s="383"/>
-      <c r="E5" s="383"/>
-      <c r="F5" s="383"/>
-      <c r="G5" s="383"/>
-      <c r="H5" s="383"/>
-      <c r="I5" s="383"/>
-      <c r="J5" s="383"/>
+      <c r="A5" s="381"/>
+      <c r="B5" s="383"/>
+      <c r="C5" s="383"/>
+      <c r="D5" s="377"/>
+      <c r="E5" s="377"/>
+      <c r="F5" s="377"/>
+      <c r="G5" s="377"/>
+      <c r="H5" s="377"/>
+      <c r="I5" s="377"/>
+      <c r="J5" s="377"/>
       <c r="K5" s="392"/>
       <c r="L5" s="385"/>
       <c r="M5" s="394"/>
@@ -7892,6 +7892,10 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
@@ -7908,10 +7912,6 @@
     <mergeCell ref="Q4:Q5"/>
     <mergeCell ref="A3:R3"/>
     <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.2" right="0.2" top="0.5" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="95" orientation="landscape" r:id="rId1"/>
@@ -9554,7 +9554,7 @@
       <c r="L25" s="78"/>
       <c r="M25" s="78"/>
     </row>
-    <row r="26" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C26" s="8"/>
       <c r="D26" s="25"/>
       <c r="G26" s="24"/>
@@ -9843,7 +9843,7 @@
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D33" sqref="D33"/>
+      <selection pane="bottomLeft" activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11934,8 +11934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="D16" workbookViewId="0">
+      <selection activeCell="Q33" sqref="Q33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/August'21/31.08.2021/Bank Statement August-2021.xlsx
+++ b/August'21/31.08.2021/Bank Statement August-2021.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7905" tabRatio="742" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7905" tabRatio="742"/>
   </bookViews>
   <sheets>
     <sheet name="G. Cost" sheetId="45" r:id="rId1"/>
@@ -3734,6 +3734,30 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3758,12 +3782,6 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3783,24 +3801,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4657,9 +4657,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y320"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T42" sqref="T42"/>
+      <selection pane="bottomLeft" activeCell="V15" sqref="V15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4677,70 +4677,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="378" t="s">
+      <c r="A1" s="386" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="378"/>
-      <c r="C1" s="378"/>
-      <c r="D1" s="378"/>
-      <c r="E1" s="378"/>
-      <c r="F1" s="378"/>
-      <c r="G1" s="378"/>
-      <c r="H1" s="378"/>
-      <c r="I1" s="378"/>
-      <c r="J1" s="378"/>
-      <c r="K1" s="378"/>
-      <c r="L1" s="378"/>
-      <c r="M1" s="378"/>
-      <c r="N1" s="378"/>
-      <c r="O1" s="378"/>
-      <c r="P1" s="378"/>
-      <c r="Q1" s="378"/>
-      <c r="R1" s="378"/>
+      <c r="B1" s="386"/>
+      <c r="C1" s="386"/>
+      <c r="D1" s="386"/>
+      <c r="E1" s="386"/>
+      <c r="F1" s="386"/>
+      <c r="G1" s="386"/>
+      <c r="H1" s="386"/>
+      <c r="I1" s="386"/>
+      <c r="J1" s="386"/>
+      <c r="K1" s="386"/>
+      <c r="L1" s="386"/>
+      <c r="M1" s="386"/>
+      <c r="N1" s="386"/>
+      <c r="O1" s="386"/>
+      <c r="P1" s="386"/>
+      <c r="Q1" s="386"/>
+      <c r="R1" s="386"/>
     </row>
     <row r="2" spans="1:25" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="379" t="s">
+      <c r="A2" s="387" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="379"/>
-      <c r="C2" s="379"/>
-      <c r="D2" s="379"/>
-      <c r="E2" s="379"/>
-      <c r="F2" s="379"/>
-      <c r="G2" s="379"/>
-      <c r="H2" s="379"/>
-      <c r="I2" s="379"/>
-      <c r="J2" s="379"/>
-      <c r="K2" s="379"/>
-      <c r="L2" s="379"/>
-      <c r="M2" s="379"/>
-      <c r="N2" s="379"/>
-      <c r="O2" s="379"/>
-      <c r="P2" s="379"/>
-      <c r="Q2" s="379"/>
-      <c r="R2" s="379"/>
+      <c r="B2" s="387"/>
+      <c r="C2" s="387"/>
+      <c r="D2" s="387"/>
+      <c r="E2" s="387"/>
+      <c r="F2" s="387"/>
+      <c r="G2" s="387"/>
+      <c r="H2" s="387"/>
+      <c r="I2" s="387"/>
+      <c r="J2" s="387"/>
+      <c r="K2" s="387"/>
+      <c r="L2" s="387"/>
+      <c r="M2" s="387"/>
+      <c r="N2" s="387"/>
+      <c r="O2" s="387"/>
+      <c r="P2" s="387"/>
+      <c r="Q2" s="387"/>
+      <c r="R2" s="387"/>
     </row>
     <row r="3" spans="1:25" s="91" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="388" t="s">
+      <c r="A3" s="394" t="s">
         <v>249</v>
       </c>
-      <c r="B3" s="389"/>
-      <c r="C3" s="389"/>
-      <c r="D3" s="389"/>
-      <c r="E3" s="389"/>
-      <c r="F3" s="389"/>
-      <c r="G3" s="389"/>
-      <c r="H3" s="389"/>
-      <c r="I3" s="389"/>
-      <c r="J3" s="389"/>
-      <c r="K3" s="389"/>
-      <c r="L3" s="389"/>
-      <c r="M3" s="389"/>
-      <c r="N3" s="389"/>
-      <c r="O3" s="389"/>
-      <c r="P3" s="389"/>
-      <c r="Q3" s="389"/>
-      <c r="R3" s="390"/>
+      <c r="B3" s="395"/>
+      <c r="C3" s="395"/>
+      <c r="D3" s="395"/>
+      <c r="E3" s="395"/>
+      <c r="F3" s="395"/>
+      <c r="G3" s="395"/>
+      <c r="H3" s="395"/>
+      <c r="I3" s="395"/>
+      <c r="J3" s="395"/>
+      <c r="K3" s="395"/>
+      <c r="L3" s="395"/>
+      <c r="M3" s="395"/>
+      <c r="N3" s="395"/>
+      <c r="O3" s="395"/>
+      <c r="P3" s="395"/>
+      <c r="Q3" s="395"/>
+      <c r="R3" s="396"/>
       <c r="T3" s="92"/>
       <c r="U3" s="93"/>
       <c r="V3" s="93"/>
@@ -4749,55 +4749,55 @@
       <c r="Y3" s="94"/>
     </row>
     <row r="4" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="380" t="s">
+      <c r="A4" s="388" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="382" t="s">
+      <c r="B4" s="390" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="382" t="s">
+      <c r="C4" s="390" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="376" t="s">
+      <c r="D4" s="384" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="376" t="s">
+      <c r="E4" s="384" t="s">
         <v>150</v>
       </c>
-      <c r="F4" s="376" t="s">
+      <c r="F4" s="384" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="376" t="s">
+      <c r="G4" s="384" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="376" t="s">
+      <c r="H4" s="384" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="376" t="s">
+      <c r="I4" s="384" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="376" t="s">
+      <c r="J4" s="384" t="s">
         <v>26</v>
       </c>
-      <c r="K4" s="391" t="s">
+      <c r="K4" s="397" t="s">
         <v>27</v>
       </c>
-      <c r="L4" s="384" t="s">
+      <c r="L4" s="376" t="s">
         <v>28</v>
       </c>
-      <c r="M4" s="393" t="s">
+      <c r="M4" s="378" t="s">
         <v>29</v>
       </c>
-      <c r="N4" s="395" t="s">
+      <c r="N4" s="380" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="397" t="s">
+      <c r="O4" s="382" t="s">
         <v>30</v>
       </c>
-      <c r="P4" s="384" t="s">
+      <c r="P4" s="376" t="s">
         <v>222</v>
       </c>
-      <c r="Q4" s="386" t="s">
+      <c r="Q4" s="392" t="s">
         <v>118</v>
       </c>
       <c r="R4" s="282" t="s">
@@ -4810,23 +4810,23 @@
       <c r="X4" s="93"/>
     </row>
     <row r="5" spans="1:25" s="94" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="381"/>
-      <c r="B5" s="383"/>
-      <c r="C5" s="383"/>
-      <c r="D5" s="377"/>
-      <c r="E5" s="377"/>
-      <c r="F5" s="377"/>
-      <c r="G5" s="377"/>
-      <c r="H5" s="377"/>
-      <c r="I5" s="377"/>
-      <c r="J5" s="377"/>
-      <c r="K5" s="392"/>
-      <c r="L5" s="385"/>
-      <c r="M5" s="394"/>
-      <c r="N5" s="396"/>
-      <c r="O5" s="398"/>
-      <c r="P5" s="385"/>
-      <c r="Q5" s="387"/>
+      <c r="A5" s="389"/>
+      <c r="B5" s="391"/>
+      <c r="C5" s="391"/>
+      <c r="D5" s="385"/>
+      <c r="E5" s="385"/>
+      <c r="F5" s="385"/>
+      <c r="G5" s="385"/>
+      <c r="H5" s="385"/>
+      <c r="I5" s="385"/>
+      <c r="J5" s="385"/>
+      <c r="K5" s="398"/>
+      <c r="L5" s="377"/>
+      <c r="M5" s="379"/>
+      <c r="N5" s="381"/>
+      <c r="O5" s="383"/>
+      <c r="P5" s="377"/>
+      <c r="Q5" s="393"/>
       <c r="R5" s="283" t="s">
         <v>32</v>
       </c>
@@ -5743,13 +5743,15 @@
       <c r="M33" s="296">
         <v>7000</v>
       </c>
-      <c r="N33" s="296"/>
+      <c r="N33" s="296">
+        <v>36000</v>
+      </c>
       <c r="O33" s="296"/>
       <c r="P33" s="296"/>
       <c r="Q33" s="298"/>
       <c r="R33" s="284">
         <f t="shared" si="0"/>
-        <v>11650</v>
+        <v>47650</v>
       </c>
       <c r="S33" s="99"/>
     </row>
@@ -5879,7 +5881,7 @@
       </c>
       <c r="N37" s="288">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>36000</v>
       </c>
       <c r="O37" s="288">
         <f t="shared" si="1"/>
@@ -5895,7 +5897,7 @@
       </c>
       <c r="R37" s="290">
         <f>SUM(R6:R36)</f>
-        <v>63332</v>
+        <v>99332</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
@@ -5986,1904 +5988,1904 @@
       <c r="D48" s="112"/>
       <c r="E48" s="112"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="112"/>
       <c r="B49" s="112"/>
       <c r="C49" s="112"/>
       <c r="D49" s="112"/>
       <c r="E49" s="112"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="112"/>
       <c r="B50" s="112"/>
       <c r="C50" s="112"/>
       <c r="D50" s="112"/>
       <c r="E50" s="112"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="112"/>
       <c r="B51" s="112"/>
       <c r="C51" s="112"/>
       <c r="D51" s="112"/>
       <c r="E51" s="112"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="112"/>
       <c r="B52" s="112"/>
       <c r="C52" s="112"/>
       <c r="D52" s="112"/>
       <c r="E52" s="112"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="112"/>
       <c r="B53" s="112"/>
       <c r="C53" s="112"/>
       <c r="D53" s="112"/>
       <c r="E53" s="112"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="112"/>
       <c r="B54" s="112"/>
       <c r="C54" s="112"/>
       <c r="D54" s="112"/>
       <c r="E54" s="112"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="112"/>
       <c r="B55" s="112"/>
       <c r="C55" s="112"/>
       <c r="D55" s="112"/>
       <c r="E55" s="112"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="112"/>
       <c r="B56" s="112"/>
       <c r="C56" s="112"/>
       <c r="D56" s="112"/>
       <c r="E56" s="112"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="112"/>
       <c r="B57" s="112"/>
       <c r="C57" s="112"/>
       <c r="D57" s="112"/>
       <c r="E57" s="112"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="112"/>
       <c r="B58" s="112"/>
       <c r="C58" s="112"/>
       <c r="D58" s="112"/>
       <c r="E58" s="112"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="112"/>
       <c r="B59" s="112"/>
       <c r="C59" s="112"/>
       <c r="D59" s="112"/>
       <c r="E59" s="112"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="112"/>
       <c r="B60" s="112"/>
       <c r="C60" s="112"/>
       <c r="D60" s="112"/>
       <c r="E60" s="112"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="112"/>
       <c r="B61" s="112"/>
       <c r="C61" s="112"/>
       <c r="D61" s="112"/>
       <c r="E61" s="112"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="112"/>
       <c r="B62" s="112"/>
       <c r="C62" s="112"/>
       <c r="D62" s="112"/>
       <c r="E62" s="112"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="112"/>
       <c r="B63" s="112"/>
       <c r="C63" s="112"/>
       <c r="D63" s="112"/>
       <c r="E63" s="112"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="112"/>
       <c r="B64" s="112"/>
       <c r="C64" s="112"/>
       <c r="D64" s="112"/>
       <c r="E64" s="112"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="112"/>
       <c r="B65" s="112"/>
       <c r="C65" s="112"/>
       <c r="D65" s="112"/>
       <c r="E65" s="112"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="112"/>
       <c r="B66" s="112"/>
       <c r="C66" s="112"/>
       <c r="D66" s="112"/>
       <c r="E66" s="112"/>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="112"/>
       <c r="B67" s="112"/>
       <c r="C67" s="112"/>
       <c r="D67" s="112"/>
       <c r="E67" s="112"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="112"/>
       <c r="B68" s="112"/>
       <c r="C68" s="112"/>
       <c r="D68" s="112"/>
       <c r="E68" s="112"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="112"/>
       <c r="B69" s="112"/>
       <c r="C69" s="112"/>
       <c r="D69" s="112"/>
       <c r="E69" s="112"/>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="112"/>
       <c r="B70" s="112"/>
       <c r="C70" s="112"/>
       <c r="D70" s="112"/>
       <c r="E70" s="112"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="112"/>
       <c r="B71" s="112"/>
       <c r="C71" s="112"/>
       <c r="D71" s="112"/>
       <c r="E71" s="112"/>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="112"/>
       <c r="B72" s="112"/>
       <c r="C72" s="112"/>
       <c r="D72" s="112"/>
       <c r="E72" s="112"/>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="112"/>
       <c r="B73" s="112"/>
       <c r="C73" s="112"/>
       <c r="D73" s="112"/>
       <c r="E73" s="112"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="112"/>
       <c r="B74" s="112"/>
       <c r="C74" s="112"/>
       <c r="D74" s="112"/>
       <c r="E74" s="112"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="112"/>
       <c r="B75" s="112"/>
       <c r="C75" s="112"/>
       <c r="D75" s="112"/>
       <c r="E75" s="112"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="112"/>
       <c r="B76" s="112"/>
       <c r="C76" s="112"/>
       <c r="D76" s="112"/>
       <c r="E76" s="112"/>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="112"/>
       <c r="B77" s="112"/>
       <c r="C77" s="112"/>
       <c r="D77" s="112"/>
       <c r="E77" s="112"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="112"/>
       <c r="B78" s="112"/>
       <c r="C78" s="112"/>
       <c r="D78" s="112"/>
       <c r="E78" s="112"/>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="112"/>
       <c r="B79" s="112"/>
       <c r="C79" s="112"/>
       <c r="D79" s="112"/>
       <c r="E79" s="112"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="112"/>
       <c r="B80" s="112"/>
       <c r="C80" s="112"/>
       <c r="D80" s="112"/>
       <c r="E80" s="112"/>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="112"/>
       <c r="B81" s="112"/>
       <c r="C81" s="112"/>
       <c r="D81" s="112"/>
       <c r="E81" s="112"/>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="112"/>
       <c r="B82" s="112"/>
       <c r="C82" s="112"/>
       <c r="D82" s="112"/>
       <c r="E82" s="112"/>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="112"/>
       <c r="B83" s="112"/>
       <c r="C83" s="112"/>
       <c r="D83" s="112"/>
       <c r="E83" s="112"/>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="112"/>
       <c r="B84" s="112"/>
       <c r="C84" s="112"/>
       <c r="D84" s="112"/>
       <c r="E84" s="112"/>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="112"/>
       <c r="B85" s="112"/>
       <c r="C85" s="112"/>
       <c r="D85" s="112"/>
       <c r="E85" s="112"/>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="112"/>
       <c r="B86" s="112"/>
       <c r="C86" s="112"/>
       <c r="D86" s="112"/>
       <c r="E86" s="112"/>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="112"/>
       <c r="B87" s="112"/>
       <c r="C87" s="112"/>
       <c r="D87" s="112"/>
       <c r="E87" s="112"/>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="112"/>
       <c r="B88" s="112"/>
       <c r="C88" s="112"/>
       <c r="D88" s="112"/>
       <c r="E88" s="112"/>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="112"/>
       <c r="B89" s="112"/>
       <c r="C89" s="112"/>
       <c r="D89" s="112"/>
       <c r="E89" s="112"/>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="112"/>
       <c r="B90" s="112"/>
       <c r="C90" s="112"/>
       <c r="D90" s="112"/>
       <c r="E90" s="112"/>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="112"/>
       <c r="B91" s="112"/>
       <c r="C91" s="112"/>
       <c r="D91" s="112"/>
       <c r="E91" s="112"/>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="112"/>
       <c r="B92" s="112"/>
       <c r="C92" s="112"/>
       <c r="D92" s="112"/>
       <c r="E92" s="112"/>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="112"/>
       <c r="B93" s="112"/>
       <c r="C93" s="112"/>
       <c r="D93" s="112"/>
       <c r="E93" s="112"/>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="112"/>
       <c r="B94" s="112"/>
       <c r="C94" s="112"/>
       <c r="D94" s="112"/>
       <c r="E94" s="112"/>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="112"/>
       <c r="B95" s="112"/>
       <c r="C95" s="112"/>
       <c r="D95" s="112"/>
       <c r="E95" s="112"/>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="112"/>
       <c r="B96" s="112"/>
       <c r="C96" s="112"/>
       <c r="D96" s="112"/>
       <c r="E96" s="112"/>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="112"/>
       <c r="B97" s="112"/>
       <c r="C97" s="112"/>
       <c r="D97" s="112"/>
       <c r="E97" s="112"/>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="112"/>
       <c r="B98" s="112"/>
       <c r="C98" s="112"/>
       <c r="D98" s="112"/>
       <c r="E98" s="112"/>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="112"/>
       <c r="B99" s="112"/>
       <c r="C99" s="112"/>
       <c r="D99" s="112"/>
       <c r="E99" s="112"/>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="112"/>
       <c r="B100" s="112"/>
       <c r="C100" s="112"/>
       <c r="D100" s="112"/>
       <c r="E100" s="112"/>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="112"/>
       <c r="B101" s="112"/>
       <c r="C101" s="112"/>
       <c r="D101" s="112"/>
       <c r="E101" s="112"/>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="112"/>
       <c r="B102" s="112"/>
       <c r="C102" s="112"/>
       <c r="D102" s="112"/>
       <c r="E102" s="112"/>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="112"/>
       <c r="B103" s="112"/>
       <c r="C103" s="112"/>
       <c r="D103" s="112"/>
       <c r="E103" s="112"/>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="112"/>
       <c r="B104" s="112"/>
       <c r="C104" s="112"/>
       <c r="D104" s="112"/>
       <c r="E104" s="112"/>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="112"/>
       <c r="B105" s="112"/>
       <c r="C105" s="112"/>
       <c r="D105" s="112"/>
       <c r="E105" s="112"/>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="112"/>
       <c r="B106" s="112"/>
       <c r="C106" s="112"/>
       <c r="D106" s="112"/>
       <c r="E106" s="112"/>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="112"/>
       <c r="B107" s="112"/>
       <c r="C107" s="112"/>
       <c r="D107" s="112"/>
       <c r="E107" s="112"/>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="112"/>
       <c r="B108" s="112"/>
       <c r="C108" s="112"/>
       <c r="D108" s="112"/>
       <c r="E108" s="112"/>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="112"/>
       <c r="B109" s="112"/>
       <c r="C109" s="112"/>
       <c r="D109" s="112"/>
       <c r="E109" s="112"/>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="112"/>
       <c r="B110" s="112"/>
       <c r="C110" s="112"/>
       <c r="D110" s="112"/>
       <c r="E110" s="112"/>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="112"/>
       <c r="B111" s="112"/>
       <c r="C111" s="112"/>
       <c r="D111" s="112"/>
       <c r="E111" s="112"/>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="112"/>
       <c r="B112" s="112"/>
       <c r="C112" s="112"/>
       <c r="D112" s="112"/>
       <c r="E112" s="112"/>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="112"/>
       <c r="B113" s="112"/>
       <c r="C113" s="112"/>
       <c r="D113" s="112"/>
       <c r="E113" s="112"/>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="112"/>
       <c r="B114" s="112"/>
       <c r="C114" s="112"/>
       <c r="D114" s="112"/>
       <c r="E114" s="112"/>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="112"/>
       <c r="B115" s="112"/>
       <c r="C115" s="112"/>
       <c r="D115" s="112"/>
       <c r="E115" s="112"/>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="112"/>
       <c r="B116" s="112"/>
       <c r="C116" s="112"/>
       <c r="D116" s="112"/>
       <c r="E116" s="112"/>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="112"/>
       <c r="B117" s="112"/>
       <c r="C117" s="112"/>
       <c r="D117" s="112"/>
       <c r="E117" s="112"/>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="112"/>
       <c r="B118" s="112"/>
       <c r="C118" s="112"/>
       <c r="D118" s="112"/>
       <c r="E118" s="112"/>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="112"/>
       <c r="B119" s="112"/>
       <c r="C119" s="112"/>
       <c r="D119" s="112"/>
       <c r="E119" s="112"/>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="112"/>
       <c r="B120" s="112"/>
       <c r="C120" s="112"/>
       <c r="D120" s="112"/>
       <c r="E120" s="112"/>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="112"/>
       <c r="B121" s="112"/>
       <c r="C121" s="112"/>
       <c r="D121" s="112"/>
       <c r="E121" s="112"/>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="112"/>
       <c r="B122" s="112"/>
       <c r="C122" s="112"/>
       <c r="D122" s="112"/>
       <c r="E122" s="112"/>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="112"/>
       <c r="B123" s="112"/>
       <c r="C123" s="112"/>
       <c r="D123" s="112"/>
       <c r="E123" s="112"/>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="112"/>
       <c r="B124" s="112"/>
       <c r="C124" s="112"/>
       <c r="D124" s="112"/>
       <c r="E124" s="112"/>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="112"/>
       <c r="B125" s="112"/>
       <c r="C125" s="112"/>
       <c r="D125" s="112"/>
       <c r="E125" s="112"/>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="112"/>
       <c r="B126" s="112"/>
       <c r="C126" s="112"/>
       <c r="D126" s="112"/>
       <c r="E126" s="112"/>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="112"/>
       <c r="B127" s="112"/>
       <c r="C127" s="112"/>
       <c r="D127" s="112"/>
       <c r="E127" s="112"/>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="112"/>
       <c r="B128" s="112"/>
       <c r="C128" s="112"/>
       <c r="D128" s="112"/>
       <c r="E128" s="112"/>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="112"/>
       <c r="B129" s="112"/>
       <c r="C129" s="112"/>
       <c r="D129" s="112"/>
       <c r="E129" s="112"/>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="112"/>
       <c r="B130" s="112"/>
       <c r="C130" s="112"/>
       <c r="D130" s="112"/>
       <c r="E130" s="112"/>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="112"/>
       <c r="B131" s="112"/>
       <c r="C131" s="112"/>
       <c r="D131" s="112"/>
       <c r="E131" s="112"/>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="112"/>
       <c r="B132" s="112"/>
       <c r="C132" s="112"/>
       <c r="D132" s="112"/>
       <c r="E132" s="112"/>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="112"/>
       <c r="B133" s="112"/>
       <c r="C133" s="112"/>
       <c r="D133" s="112"/>
       <c r="E133" s="112"/>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="112"/>
       <c r="B134" s="112"/>
       <c r="C134" s="112"/>
       <c r="D134" s="112"/>
       <c r="E134" s="112"/>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="112"/>
       <c r="B135" s="112"/>
       <c r="C135" s="112"/>
       <c r="D135" s="112"/>
       <c r="E135" s="112"/>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="112"/>
       <c r="B136" s="112"/>
       <c r="C136" s="112"/>
       <c r="D136" s="112"/>
       <c r="E136" s="112"/>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="112"/>
       <c r="B137" s="112"/>
       <c r="C137" s="112"/>
       <c r="D137" s="112"/>
       <c r="E137" s="112"/>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="112"/>
       <c r="B138" s="112"/>
       <c r="C138" s="112"/>
       <c r="D138" s="112"/>
       <c r="E138" s="112"/>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="112"/>
       <c r="B139" s="112"/>
       <c r="C139" s="112"/>
       <c r="D139" s="112"/>
       <c r="E139" s="112"/>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="112"/>
       <c r="B140" s="112"/>
       <c r="C140" s="112"/>
       <c r="D140" s="112"/>
       <c r="E140" s="112"/>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="112"/>
       <c r="B141" s="112"/>
       <c r="C141" s="112"/>
       <c r="D141" s="112"/>
       <c r="E141" s="112"/>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="112"/>
       <c r="B142" s="112"/>
       <c r="C142" s="112"/>
       <c r="D142" s="112"/>
       <c r="E142" s="112"/>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="112"/>
       <c r="B143" s="112"/>
       <c r="C143" s="112"/>
       <c r="D143" s="112"/>
       <c r="E143" s="112"/>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="112"/>
       <c r="B144" s="112"/>
       <c r="C144" s="112"/>
       <c r="D144" s="112"/>
       <c r="E144" s="112"/>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="112"/>
       <c r="B145" s="112"/>
       <c r="C145" s="112"/>
       <c r="D145" s="112"/>
       <c r="E145" s="112"/>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="112"/>
       <c r="B146" s="112"/>
       <c r="C146" s="112"/>
       <c r="D146" s="112"/>
       <c r="E146" s="112"/>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="112"/>
       <c r="B147" s="112"/>
       <c r="C147" s="112"/>
       <c r="D147" s="112"/>
       <c r="E147" s="112"/>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="112"/>
       <c r="B148" s="112"/>
       <c r="C148" s="112"/>
       <c r="D148" s="112"/>
       <c r="E148" s="112"/>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="112"/>
       <c r="B149" s="112"/>
       <c r="C149" s="112"/>
       <c r="D149" s="112"/>
       <c r="E149" s="112"/>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" s="112"/>
       <c r="B150" s="112"/>
       <c r="C150" s="112"/>
       <c r="D150" s="112"/>
       <c r="E150" s="112"/>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" s="112"/>
       <c r="B151" s="112"/>
       <c r="C151" s="112"/>
       <c r="D151" s="112"/>
       <c r="E151" s="112"/>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" s="112"/>
       <c r="B152" s="112"/>
       <c r="C152" s="112"/>
       <c r="D152" s="112"/>
       <c r="E152" s="112"/>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="112"/>
       <c r="B153" s="112"/>
       <c r="C153" s="112"/>
       <c r="D153" s="112"/>
       <c r="E153" s="112"/>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="112"/>
       <c r="B154" s="112"/>
       <c r="C154" s="112"/>
       <c r="D154" s="112"/>
       <c r="E154" s="112"/>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" s="112"/>
       <c r="B155" s="112"/>
       <c r="C155" s="112"/>
       <c r="D155" s="112"/>
       <c r="E155" s="112"/>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="112"/>
       <c r="B156" s="112"/>
       <c r="C156" s="112"/>
       <c r="D156" s="112"/>
       <c r="E156" s="112"/>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" s="112"/>
       <c r="B157" s="112"/>
       <c r="C157" s="112"/>
       <c r="D157" s="112"/>
       <c r="E157" s="112"/>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A158" s="112"/>
       <c r="B158" s="112"/>
       <c r="C158" s="112"/>
       <c r="D158" s="112"/>
       <c r="E158" s="112"/>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A159" s="112"/>
       <c r="B159" s="112"/>
       <c r="C159" s="112"/>
       <c r="D159" s="112"/>
       <c r="E159" s="112"/>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A160" s="112"/>
       <c r="B160" s="112"/>
       <c r="C160" s="112"/>
       <c r="D160" s="112"/>
       <c r="E160" s="112"/>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A161" s="112"/>
       <c r="B161" s="112"/>
       <c r="C161" s="112"/>
       <c r="D161" s="112"/>
       <c r="E161" s="112"/>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A162" s="112"/>
       <c r="B162" s="112"/>
       <c r="C162" s="112"/>
       <c r="D162" s="112"/>
       <c r="E162" s="112"/>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A163" s="112"/>
       <c r="B163" s="112"/>
       <c r="C163" s="112"/>
       <c r="D163" s="112"/>
       <c r="E163" s="112"/>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A164" s="112"/>
       <c r="B164" s="112"/>
       <c r="C164" s="112"/>
       <c r="D164" s="112"/>
       <c r="E164" s="112"/>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A165" s="112"/>
       <c r="B165" s="112"/>
       <c r="C165" s="112"/>
       <c r="D165" s="112"/>
       <c r="E165" s="112"/>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A166" s="112"/>
       <c r="B166" s="112"/>
       <c r="C166" s="112"/>
       <c r="D166" s="112"/>
       <c r="E166" s="112"/>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A167" s="112"/>
       <c r="B167" s="112"/>
       <c r="C167" s="112"/>
       <c r="D167" s="112"/>
       <c r="E167" s="112"/>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A168" s="112"/>
       <c r="B168" s="112"/>
       <c r="C168" s="112"/>
       <c r="D168" s="112"/>
       <c r="E168" s="112"/>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A169" s="112"/>
       <c r="B169" s="112"/>
       <c r="C169" s="112"/>
       <c r="D169" s="112"/>
       <c r="E169" s="112"/>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A170" s="112"/>
       <c r="B170" s="112"/>
       <c r="C170" s="112"/>
       <c r="D170" s="112"/>
       <c r="E170" s="112"/>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A171" s="112"/>
       <c r="B171" s="112"/>
       <c r="C171" s="112"/>
       <c r="D171" s="112"/>
       <c r="E171" s="112"/>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A172" s="112"/>
       <c r="B172" s="112"/>
       <c r="C172" s="112"/>
       <c r="D172" s="112"/>
       <c r="E172" s="112"/>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A173" s="112"/>
       <c r="B173" s="112"/>
       <c r="C173" s="112"/>
       <c r="D173" s="112"/>
       <c r="E173" s="112"/>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A174" s="112"/>
       <c r="B174" s="112"/>
       <c r="C174" s="112"/>
       <c r="D174" s="112"/>
       <c r="E174" s="112"/>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A175" s="112"/>
       <c r="B175" s="112"/>
       <c r="C175" s="112"/>
       <c r="D175" s="112"/>
       <c r="E175" s="112"/>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A176" s="112"/>
       <c r="B176" s="112"/>
       <c r="C176" s="112"/>
       <c r="D176" s="112"/>
       <c r="E176" s="112"/>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A177" s="112"/>
       <c r="B177" s="112"/>
       <c r="C177" s="112"/>
       <c r="D177" s="112"/>
       <c r="E177" s="112"/>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A178" s="112"/>
       <c r="B178" s="112"/>
       <c r="C178" s="112"/>
       <c r="D178" s="112"/>
       <c r="E178" s="112"/>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A179" s="112"/>
       <c r="B179" s="112"/>
       <c r="C179" s="112"/>
       <c r="D179" s="112"/>
       <c r="E179" s="112"/>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A180" s="112"/>
       <c r="B180" s="112"/>
       <c r="C180" s="112"/>
       <c r="D180" s="112"/>
       <c r="E180" s="112"/>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A181" s="112"/>
       <c r="B181" s="112"/>
       <c r="C181" s="112"/>
       <c r="D181" s="112"/>
       <c r="E181" s="112"/>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A182" s="112"/>
       <c r="B182" s="112"/>
       <c r="C182" s="112"/>
       <c r="D182" s="112"/>
       <c r="E182" s="112"/>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A183" s="112"/>
       <c r="B183" s="112"/>
       <c r="C183" s="112"/>
       <c r="D183" s="112"/>
       <c r="E183" s="112"/>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A184" s="112"/>
       <c r="B184" s="112"/>
       <c r="C184" s="112"/>
       <c r="D184" s="112"/>
       <c r="E184" s="112"/>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A185" s="112"/>
       <c r="B185" s="112"/>
       <c r="C185" s="112"/>
       <c r="D185" s="112"/>
       <c r="E185" s="112"/>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A186" s="112"/>
       <c r="B186" s="112"/>
       <c r="C186" s="112"/>
       <c r="D186" s="112"/>
       <c r="E186" s="112"/>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A187" s="112"/>
       <c r="B187" s="112"/>
       <c r="C187" s="112"/>
       <c r="D187" s="112"/>
       <c r="E187" s="112"/>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A188" s="112"/>
       <c r="B188" s="112"/>
       <c r="C188" s="112"/>
       <c r="D188" s="112"/>
       <c r="E188" s="112"/>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A189" s="112"/>
       <c r="B189" s="112"/>
       <c r="C189" s="112"/>
       <c r="D189" s="112"/>
       <c r="E189" s="112"/>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A190" s="112"/>
       <c r="B190" s="112"/>
       <c r="C190" s="112"/>
       <c r="D190" s="112"/>
       <c r="E190" s="112"/>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A191" s="112"/>
       <c r="B191" s="112"/>
       <c r="C191" s="112"/>
       <c r="D191" s="112"/>
       <c r="E191" s="112"/>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A192" s="112"/>
       <c r="B192" s="112"/>
       <c r="C192" s="112"/>
       <c r="D192" s="112"/>
       <c r="E192" s="112"/>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A193" s="112"/>
       <c r="B193" s="112"/>
       <c r="C193" s="112"/>
       <c r="D193" s="112"/>
       <c r="E193" s="112"/>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A194" s="112"/>
       <c r="B194" s="112"/>
       <c r="C194" s="112"/>
       <c r="D194" s="112"/>
       <c r="E194" s="112"/>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A195" s="112"/>
       <c r="B195" s="112"/>
       <c r="C195" s="112"/>
       <c r="D195" s="112"/>
       <c r="E195" s="112"/>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A196" s="112"/>
       <c r="B196" s="112"/>
       <c r="C196" s="112"/>
       <c r="D196" s="112"/>
       <c r="E196" s="112"/>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A197" s="112"/>
       <c r="B197" s="112"/>
       <c r="C197" s="112"/>
       <c r="D197" s="112"/>
       <c r="E197" s="112"/>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A198" s="112"/>
       <c r="B198" s="112"/>
       <c r="C198" s="112"/>
       <c r="D198" s="112"/>
       <c r="E198" s="112"/>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A199" s="112"/>
       <c r="B199" s="112"/>
       <c r="C199" s="112"/>
       <c r="D199" s="112"/>
       <c r="E199" s="112"/>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A200" s="112"/>
       <c r="B200" s="112"/>
       <c r="C200" s="112"/>
       <c r="D200" s="112"/>
       <c r="E200" s="112"/>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A201" s="112"/>
       <c r="B201" s="112"/>
       <c r="C201" s="112"/>
       <c r="D201" s="112"/>
       <c r="E201" s="112"/>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A202" s="112"/>
       <c r="B202" s="112"/>
       <c r="C202" s="112"/>
       <c r="D202" s="112"/>
       <c r="E202" s="112"/>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A203" s="112"/>
       <c r="B203" s="112"/>
       <c r="C203" s="112"/>
       <c r="D203" s="112"/>
       <c r="E203" s="112"/>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A204" s="112"/>
       <c r="B204" s="112"/>
       <c r="C204" s="112"/>
       <c r="D204" s="112"/>
       <c r="E204" s="112"/>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A205" s="112"/>
       <c r="B205" s="112"/>
       <c r="C205" s="112"/>
       <c r="D205" s="112"/>
       <c r="E205" s="112"/>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A206" s="112"/>
       <c r="B206" s="112"/>
       <c r="C206" s="112"/>
       <c r="D206" s="112"/>
       <c r="E206" s="112"/>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A207" s="112"/>
       <c r="B207" s="112"/>
       <c r="C207" s="112"/>
       <c r="D207" s="112"/>
       <c r="E207" s="112"/>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A208" s="112"/>
       <c r="B208" s="112"/>
       <c r="C208" s="112"/>
       <c r="D208" s="112"/>
       <c r="E208" s="112"/>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A209" s="112"/>
       <c r="B209" s="112"/>
       <c r="C209" s="112"/>
       <c r="D209" s="112"/>
       <c r="E209" s="112"/>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A210" s="112"/>
       <c r="B210" s="112"/>
       <c r="C210" s="112"/>
       <c r="D210" s="112"/>
       <c r="E210" s="112"/>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A211" s="112"/>
       <c r="B211" s="112"/>
       <c r="C211" s="112"/>
       <c r="D211" s="112"/>
       <c r="E211" s="112"/>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A212" s="112"/>
       <c r="B212" s="112"/>
       <c r="C212" s="112"/>
       <c r="D212" s="112"/>
       <c r="E212" s="112"/>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A213" s="112"/>
       <c r="B213" s="112"/>
       <c r="C213" s="112"/>
       <c r="D213" s="112"/>
       <c r="E213" s="112"/>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A214" s="112"/>
       <c r="B214" s="112"/>
       <c r="C214" s="112"/>
       <c r="D214" s="112"/>
       <c r="E214" s="112"/>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A215" s="112"/>
       <c r="B215" s="112"/>
       <c r="C215" s="112"/>
       <c r="D215" s="112"/>
       <c r="E215" s="112"/>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A216" s="112"/>
       <c r="B216" s="112"/>
       <c r="C216" s="112"/>
       <c r="D216" s="112"/>
       <c r="E216" s="112"/>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A217" s="112"/>
       <c r="B217" s="112"/>
       <c r="C217" s="112"/>
       <c r="D217" s="112"/>
       <c r="E217" s="112"/>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A218" s="112"/>
       <c r="B218" s="112"/>
       <c r="C218" s="112"/>
       <c r="D218" s="112"/>
       <c r="E218" s="112"/>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A219" s="112"/>
       <c r="B219" s="112"/>
       <c r="C219" s="112"/>
       <c r="D219" s="112"/>
       <c r="E219" s="112"/>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A220" s="112"/>
       <c r="B220" s="112"/>
       <c r="C220" s="112"/>
       <c r="D220" s="112"/>
       <c r="E220" s="112"/>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A221" s="112"/>
       <c r="B221" s="112"/>
       <c r="C221" s="112"/>
       <c r="D221" s="112"/>
       <c r="E221" s="112"/>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A222" s="112"/>
       <c r="B222" s="112"/>
       <c r="C222" s="112"/>
       <c r="D222" s="112"/>
       <c r="E222" s="112"/>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A223" s="112"/>
       <c r="B223" s="112"/>
       <c r="C223" s="112"/>
       <c r="D223" s="112"/>
       <c r="E223" s="112"/>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A224" s="112"/>
       <c r="B224" s="112"/>
       <c r="C224" s="112"/>
       <c r="D224" s="112"/>
       <c r="E224" s="112"/>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A225" s="112"/>
       <c r="B225" s="112"/>
       <c r="C225" s="112"/>
       <c r="D225" s="112"/>
       <c r="E225" s="112"/>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A226" s="112"/>
       <c r="B226" s="112"/>
       <c r="C226" s="112"/>
       <c r="D226" s="112"/>
       <c r="E226" s="112"/>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A227" s="112"/>
       <c r="B227" s="112"/>
       <c r="C227" s="112"/>
       <c r="D227" s="112"/>
       <c r="E227" s="112"/>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A228" s="112"/>
       <c r="B228" s="112"/>
       <c r="C228" s="112"/>
       <c r="D228" s="112"/>
       <c r="E228" s="112"/>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A229" s="112"/>
       <c r="B229" s="112"/>
       <c r="C229" s="112"/>
       <c r="D229" s="112"/>
       <c r="E229" s="112"/>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A230" s="112"/>
       <c r="B230" s="112"/>
       <c r="C230" s="112"/>
       <c r="D230" s="112"/>
       <c r="E230" s="112"/>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A231" s="112"/>
       <c r="B231" s="112"/>
       <c r="C231" s="112"/>
       <c r="D231" s="112"/>
       <c r="E231" s="112"/>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A232" s="112"/>
       <c r="B232" s="112"/>
       <c r="C232" s="112"/>
       <c r="D232" s="112"/>
       <c r="E232" s="112"/>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A233" s="112"/>
       <c r="B233" s="112"/>
       <c r="C233" s="112"/>
       <c r="D233" s="112"/>
       <c r="E233" s="112"/>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A234" s="112"/>
       <c r="B234" s="112"/>
       <c r="C234" s="112"/>
       <c r="D234" s="112"/>
       <c r="E234" s="112"/>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A235" s="112"/>
       <c r="B235" s="112"/>
       <c r="C235" s="112"/>
       <c r="D235" s="112"/>
       <c r="E235" s="112"/>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A236" s="112"/>
       <c r="B236" s="112"/>
       <c r="C236" s="112"/>
       <c r="D236" s="112"/>
       <c r="E236" s="112"/>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A237" s="112"/>
       <c r="B237" s="112"/>
       <c r="C237" s="112"/>
       <c r="D237" s="112"/>
       <c r="E237" s="112"/>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A238" s="112"/>
       <c r="B238" s="112"/>
       <c r="C238" s="112"/>
       <c r="D238" s="112"/>
       <c r="E238" s="112"/>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A239" s="112"/>
       <c r="B239" s="112"/>
       <c r="C239" s="112"/>
       <c r="D239" s="112"/>
       <c r="E239" s="112"/>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A240" s="112"/>
       <c r="B240" s="112"/>
       <c r="C240" s="112"/>
       <c r="D240" s="112"/>
       <c r="E240" s="112"/>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A241" s="112"/>
       <c r="B241" s="112"/>
       <c r="C241" s="112"/>
       <c r="D241" s="112"/>
       <c r="E241" s="112"/>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A242" s="112"/>
       <c r="B242" s="112"/>
       <c r="C242" s="112"/>
       <c r="D242" s="112"/>
       <c r="E242" s="112"/>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A243" s="112"/>
       <c r="B243" s="112"/>
       <c r="C243" s="112"/>
       <c r="D243" s="112"/>
       <c r="E243" s="112"/>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A244" s="112"/>
       <c r="B244" s="112"/>
       <c r="C244" s="112"/>
       <c r="D244" s="112"/>
       <c r="E244" s="112"/>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A245" s="112"/>
       <c r="B245" s="112"/>
       <c r="C245" s="112"/>
       <c r="D245" s="112"/>
       <c r="E245" s="112"/>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A246" s="112"/>
       <c r="B246" s="112"/>
       <c r="C246" s="112"/>
       <c r="D246" s="112"/>
       <c r="E246" s="112"/>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A247" s="112"/>
       <c r="B247" s="112"/>
       <c r="C247" s="112"/>
       <c r="D247" s="112"/>
       <c r="E247" s="112"/>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A248" s="112"/>
       <c r="B248" s="112"/>
       <c r="C248" s="112"/>
       <c r="D248" s="112"/>
       <c r="E248" s="112"/>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A249" s="112"/>
       <c r="B249" s="112"/>
       <c r="C249" s="112"/>
       <c r="D249" s="112"/>
       <c r="E249" s="112"/>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A250" s="112"/>
       <c r="B250" s="112"/>
       <c r="C250" s="112"/>
       <c r="D250" s="112"/>
       <c r="E250" s="112"/>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A251" s="112"/>
       <c r="B251" s="112"/>
       <c r="C251" s="112"/>
       <c r="D251" s="112"/>
       <c r="E251" s="112"/>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A252" s="112"/>
       <c r="B252" s="112"/>
       <c r="C252" s="112"/>
       <c r="D252" s="112"/>
       <c r="E252" s="112"/>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A253" s="112"/>
       <c r="B253" s="112"/>
       <c r="C253" s="112"/>
       <c r="D253" s="112"/>
       <c r="E253" s="112"/>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A254" s="112"/>
       <c r="B254" s="112"/>
       <c r="C254" s="112"/>
       <c r="D254" s="112"/>
       <c r="E254" s="112"/>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A255" s="112"/>
       <c r="B255" s="112"/>
       <c r="C255" s="112"/>
       <c r="D255" s="112"/>
       <c r="E255" s="112"/>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A256" s="112"/>
       <c r="B256" s="112"/>
       <c r="C256" s="112"/>
       <c r="D256" s="112"/>
       <c r="E256" s="112"/>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A257" s="112"/>
       <c r="B257" s="112"/>
       <c r="C257" s="112"/>
       <c r="D257" s="112"/>
       <c r="E257" s="112"/>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A258" s="112"/>
       <c r="B258" s="112"/>
       <c r="C258" s="112"/>
       <c r="D258" s="112"/>
       <c r="E258" s="112"/>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A259" s="112"/>
       <c r="B259" s="112"/>
       <c r="C259" s="112"/>
       <c r="D259" s="112"/>
       <c r="E259" s="112"/>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A260" s="112"/>
       <c r="B260" s="112"/>
       <c r="C260" s="112"/>
       <c r="D260" s="112"/>
       <c r="E260" s="112"/>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A261" s="112"/>
       <c r="B261" s="112"/>
       <c r="C261" s="112"/>
       <c r="D261" s="112"/>
       <c r="E261" s="112"/>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A262" s="112"/>
       <c r="B262" s="112"/>
       <c r="C262" s="112"/>
       <c r="D262" s="112"/>
       <c r="E262" s="112"/>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A263" s="112"/>
       <c r="B263" s="112"/>
       <c r="C263" s="112"/>
       <c r="D263" s="112"/>
       <c r="E263" s="112"/>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A264" s="112"/>
       <c r="B264" s="112"/>
       <c r="C264" s="112"/>
       <c r="D264" s="112"/>
       <c r="E264" s="112"/>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A265" s="112"/>
       <c r="B265" s="112"/>
       <c r="C265" s="112"/>
       <c r="D265" s="112"/>
       <c r="E265" s="112"/>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A266" s="112"/>
       <c r="B266" s="112"/>
       <c r="C266" s="112"/>
       <c r="D266" s="112"/>
       <c r="E266" s="112"/>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A267" s="112"/>
       <c r="B267" s="112"/>
       <c r="C267" s="112"/>
       <c r="D267" s="112"/>
       <c r="E267" s="112"/>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A268" s="112"/>
       <c r="B268" s="112"/>
       <c r="C268" s="112"/>
       <c r="D268" s="112"/>
       <c r="E268" s="112"/>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A269" s="112"/>
       <c r="B269" s="112"/>
       <c r="C269" s="112"/>
       <c r="D269" s="112"/>
       <c r="E269" s="112"/>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A270" s="112"/>
       <c r="B270" s="112"/>
       <c r="C270" s="112"/>
       <c r="D270" s="112"/>
       <c r="E270" s="112"/>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A271" s="112"/>
       <c r="B271" s="112"/>
       <c r="C271" s="112"/>
       <c r="D271" s="112"/>
       <c r="E271" s="112"/>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A272" s="112"/>
       <c r="B272" s="112"/>
       <c r="C272" s="112"/>
       <c r="D272" s="112"/>
       <c r="E272" s="112"/>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A273" s="112"/>
       <c r="B273" s="112"/>
       <c r="C273" s="112"/>
       <c r="D273" s="112"/>
       <c r="E273" s="112"/>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A274" s="112"/>
       <c r="B274" s="112"/>
       <c r="C274" s="112"/>
       <c r="D274" s="112"/>
       <c r="E274" s="112"/>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A275" s="112"/>
       <c r="B275" s="112"/>
       <c r="C275" s="112"/>
       <c r="D275" s="112"/>
       <c r="E275" s="112"/>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A276" s="112"/>
       <c r="B276" s="112"/>
       <c r="C276" s="112"/>
       <c r="D276" s="112"/>
       <c r="E276" s="112"/>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A277" s="112"/>
       <c r="B277" s="112"/>
       <c r="C277" s="112"/>
       <c r="D277" s="112"/>
       <c r="E277" s="112"/>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A278" s="112"/>
       <c r="B278" s="112"/>
       <c r="C278" s="112"/>
       <c r="D278" s="112"/>
       <c r="E278" s="112"/>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A279" s="112"/>
       <c r="B279" s="112"/>
       <c r="C279" s="112"/>
       <c r="D279" s="112"/>
       <c r="E279" s="112"/>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A280" s="112"/>
       <c r="B280" s="112"/>
       <c r="C280" s="112"/>
       <c r="D280" s="112"/>
       <c r="E280" s="112"/>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A281" s="112"/>
       <c r="B281" s="112"/>
       <c r="C281" s="112"/>
       <c r="D281" s="112"/>
       <c r="E281" s="112"/>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A282" s="112"/>
       <c r="B282" s="112"/>
       <c r="C282" s="112"/>
       <c r="D282" s="112"/>
       <c r="E282" s="112"/>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A283" s="112"/>
       <c r="B283" s="112"/>
       <c r="C283" s="112"/>
       <c r="D283" s="112"/>
       <c r="E283" s="112"/>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A284" s="112"/>
       <c r="B284" s="112"/>
       <c r="C284" s="112"/>
       <c r="D284" s="112"/>
       <c r="E284" s="112"/>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A285" s="112"/>
       <c r="B285" s="112"/>
       <c r="C285" s="112"/>
       <c r="D285" s="112"/>
       <c r="E285" s="112"/>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A286" s="112"/>
       <c r="B286" s="112"/>
       <c r="C286" s="112"/>
       <c r="D286" s="112"/>
       <c r="E286" s="112"/>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A287" s="112"/>
       <c r="B287" s="112"/>
       <c r="C287" s="112"/>
       <c r="D287" s="112"/>
       <c r="E287" s="112"/>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A288" s="112"/>
       <c r="B288" s="112"/>
       <c r="C288" s="112"/>
       <c r="D288" s="112"/>
       <c r="E288" s="112"/>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A289" s="112"/>
       <c r="B289" s="112"/>
       <c r="C289" s="112"/>
       <c r="D289" s="112"/>
       <c r="E289" s="112"/>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A290" s="112"/>
       <c r="B290" s="112"/>
       <c r="C290" s="112"/>
       <c r="D290" s="112"/>
       <c r="E290" s="112"/>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A291" s="112"/>
       <c r="B291" s="112"/>
       <c r="C291" s="112"/>
       <c r="D291" s="112"/>
       <c r="E291" s="112"/>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A292" s="112"/>
       <c r="B292" s="112"/>
       <c r="C292" s="112"/>
       <c r="D292" s="112"/>
       <c r="E292" s="112"/>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A293" s="112"/>
       <c r="B293" s="112"/>
       <c r="C293" s="112"/>
       <c r="D293" s="112"/>
       <c r="E293" s="112"/>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A294" s="112"/>
       <c r="B294" s="112"/>
       <c r="C294" s="112"/>
       <c r="D294" s="112"/>
       <c r="E294" s="112"/>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A295" s="112"/>
       <c r="B295" s="112"/>
       <c r="C295" s="112"/>
       <c r="D295" s="112"/>
       <c r="E295" s="112"/>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A296" s="112"/>
       <c r="B296" s="112"/>
       <c r="C296" s="112"/>
       <c r="D296" s="112"/>
       <c r="E296" s="112"/>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A297" s="112"/>
       <c r="B297" s="112"/>
       <c r="C297" s="112"/>
       <c r="D297" s="112"/>
       <c r="E297" s="112"/>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A298" s="112"/>
       <c r="B298" s="112"/>
       <c r="C298" s="112"/>
       <c r="D298" s="112"/>
       <c r="E298" s="112"/>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A299" s="112"/>
       <c r="B299" s="112"/>
       <c r="C299" s="112"/>
       <c r="D299" s="112"/>
       <c r="E299" s="112"/>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A300" s="112"/>
       <c r="B300" s="112"/>
       <c r="C300" s="112"/>
       <c r="D300" s="112"/>
       <c r="E300" s="112"/>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A301" s="112"/>
       <c r="B301" s="112"/>
       <c r="C301" s="112"/>
       <c r="D301" s="112"/>
       <c r="E301" s="112"/>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A302" s="112"/>
       <c r="B302" s="112"/>
       <c r="C302" s="112"/>
       <c r="D302" s="112"/>
       <c r="E302" s="112"/>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A303" s="112"/>
       <c r="B303" s="112"/>
       <c r="C303" s="112"/>
       <c r="D303" s="112"/>
       <c r="E303" s="112"/>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A304" s="112"/>
       <c r="B304" s="112"/>
       <c r="C304" s="112"/>
       <c r="D304" s="112"/>
       <c r="E304" s="112"/>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A305" s="112"/>
       <c r="B305" s="112"/>
       <c r="C305" s="112"/>
       <c r="D305" s="112"/>
       <c r="E305" s="112"/>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A306" s="112"/>
       <c r="B306" s="112"/>
       <c r="C306" s="112"/>
       <c r="D306" s="112"/>
       <c r="E306" s="112"/>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A307" s="112"/>
       <c r="B307" s="112"/>
       <c r="C307" s="112"/>
       <c r="D307" s="112"/>
       <c r="E307" s="112"/>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A308" s="112"/>
       <c r="B308" s="112"/>
       <c r="C308" s="112"/>
       <c r="D308" s="112"/>
       <c r="E308" s="112"/>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A309" s="112"/>
       <c r="B309" s="112"/>
       <c r="C309" s="112"/>
       <c r="D309" s="112"/>
       <c r="E309" s="112"/>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A310" s="112"/>
       <c r="B310" s="112"/>
       <c r="C310" s="112"/>
       <c r="D310" s="112"/>
       <c r="E310" s="112"/>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A311" s="112"/>
       <c r="B311" s="112"/>
       <c r="C311" s="112"/>
       <c r="D311" s="112"/>
       <c r="E311" s="112"/>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A312" s="112"/>
       <c r="B312" s="112"/>
       <c r="C312" s="112"/>
       <c r="D312" s="112"/>
       <c r="E312" s="112"/>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A313" s="112"/>
       <c r="B313" s="112"/>
       <c r="C313" s="112"/>
       <c r="D313" s="112"/>
       <c r="E313" s="112"/>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A314" s="112"/>
       <c r="B314" s="112"/>
       <c r="C314" s="112"/>
       <c r="D314" s="112"/>
       <c r="E314" s="112"/>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A315" s="112"/>
       <c r="B315" s="112"/>
       <c r="C315" s="112"/>
       <c r="D315" s="112"/>
       <c r="E315" s="112"/>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A316" s="112"/>
       <c r="B316" s="112"/>
       <c r="C316" s="112"/>
       <c r="D316" s="112"/>
       <c r="E316" s="112"/>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A317" s="112"/>
       <c r="B317" s="112"/>
       <c r="C317" s="112"/>
       <c r="D317" s="112"/>
       <c r="E317" s="112"/>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A318" s="112"/>
       <c r="B318" s="112"/>
       <c r="C318" s="112"/>
       <c r="D318" s="112"/>
       <c r="E318" s="112"/>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A319" s="112"/>
       <c r="B319" s="112"/>
       <c r="C319" s="112"/>
       <c r="D319" s="112"/>
       <c r="E319" s="112"/>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:5" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A320" s="112"/>
       <c r="B320" s="112"/>
       <c r="C320" s="112"/>
@@ -7892,14 +7894,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
     <mergeCell ref="A1:R1"/>
     <mergeCell ref="A2:R2"/>
     <mergeCell ref="A4:A5"/>
@@ -7912,6 +7906,14 @@
     <mergeCell ref="Q4:Q5"/>
     <mergeCell ref="A3:R3"/>
     <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
   </mergeCells>
   <pageMargins left="0.2" right="0.2" top="0.5" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="95" orientation="landscape" r:id="rId1"/>
@@ -11934,8 +11936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D16" workbookViewId="0">
-      <selection activeCell="Q33" sqref="Q33"/>
+    <sheetView topLeftCell="D16" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
